--- a/fuentes/contenidos/grado10/guion04/SolicitudGrafica_CN_10_04.xlsx
+++ b/fuentes/contenidos/grado10/guion04/SolicitudGrafica_CN_10_04.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado10\guion04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25603" windowHeight="14377" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -395,9 +400,6 @@
     <t>Área:</t>
   </si>
   <si>
-    <t>CN_08_01_REC10</t>
-  </si>
-  <si>
     <t>CN_08_02_REC10_IMG01</t>
   </si>
   <si>
@@ -745,6 +747,9 @@
 Los vectores (flechas) N y Wy deben quedar de la misma longitud.
 Los vectores (flechas) T y Wx deben quedar de la misma longitud.
 </t>
+  </si>
+  <si>
+    <t>CN_10_04_CO</t>
   </si>
 </sst>
 </file>
@@ -1464,9 +1469,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,6 +1765,10 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1874,7 +1880,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1896,15 +1902,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>23937</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1041400</xdr:colOff>
+          <xdr:colOff>1043661</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>229797</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1917,7 +1923,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1925,6 +1931,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1937,15 +1957,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1054100</xdr:colOff>
+          <xdr:colOff>1053236</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>863600</xdr:colOff>
+          <xdr:colOff>861738</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>229797</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1958,7 +1978,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1966,6 +1986,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1978,7 +2012,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>12700</xdr:colOff>
+          <xdr:colOff>14362</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1986,7 +2020,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>229797</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1999,7 +2033,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2007,6 +2041,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2021,13 +2069,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1014936</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2040,7 +2088,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2048,6 +2096,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2060,15 +2122,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1016000</xdr:colOff>
+          <xdr:colOff>1014936</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:colOff>837801</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2081,7 +2143,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2089,6 +2151,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2103,13 +2179,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:colOff>837801</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2122,7 +2198,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2130,6 +2206,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2144,13 +2234,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>482600</xdr:rowOff>
+          <xdr:rowOff>483531</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>838200</xdr:colOff>
+          <xdr:colOff>837801</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>711200</xdr:rowOff>
+          <xdr:rowOff>713328</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2163,7 +2253,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2171,6 +2261,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2503,44 +2607,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.3125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1875" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6875" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.83203125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="41.8125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.6875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.3125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="2"/>
+    <col min="16" max="16384" width="10.8125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16" thickBot="1">
+    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
       <c r="L1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2549,24 +2653,24 @@
         <v xml:space="preserve">Ubicación de la imagen en el recurso </v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="F2" s="75" t="s">
+      <c r="D2" s="82"/>
+      <c r="F2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="15"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="14"/>
       <c r="L2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
@@ -2576,24 +2680,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="83">
         <v>10</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="F3" s="77">
+      <c r="D3" s="84"/>
+      <c r="F3" s="76">
         <v>42144</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="14"/>
       <c r="L3" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
@@ -2603,26 +2707,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="85"/>
+      <c r="C4" s="83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="84"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="G4" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="58"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="M4" s="2" t="str">
         <f ca="1">IF($N4&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N4,1,1,1),"")</f>
         <v/>
@@ -2631,25 +2735,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16" thickBot="1">
+    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="87"/>
+      <c r="C5" s="85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="86"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="38" t="str">
+      <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="M5" s="2" t="str">
         <f ca="1">IF($N5&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N5,1,1,1),"")</f>
         <v/>
@@ -2658,7 +2762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="16" thickBot="1">
+    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2666,10 +2770,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="M6" s="2" t="str">
         <f ca="1">IF($N6&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N6,1,1,1),"")</f>
         <v/>
@@ -2678,23 +2782,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="M7" s="2" t="str">
         <f ca="1">IF($N7&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N7,1,1,1),"")</f>
         <v/>
@@ -2703,20 +2807,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16" thickBot="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="79" t="s">
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="12"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
         <f ca="1">IF($N8&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N8,1,1,1),"")</f>
         <v/>
@@ -2727,3331 +2831,3331 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="19" t="str">
+      <c r="E9" s="18" t="str">
         <f>IF($G$4="Recurso",$M$1,$L$1)</f>
         <v>Formato</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="58" t="s">
+      <c r="H9" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1">
-      <c r="A10" s="13" t="str">
+    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="21" t="str">
+      <c r="B10" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="14" t="str">
+      <c r="D10" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG01_small</v>
-      </c>
-      <c r="G10" s="14" t="str">
+        <v>CN_10_04_CO_IMG01_small</v>
+      </c>
+      <c r="G10" s="13" t="str">
         <f ca="1">IF($F10&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H10" s="14" t="str">
+      <c r="H10" s="13" t="str">
         <f t="shared" ref="H10" ca="1" si="2">IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG01_zoom</v>
-      </c>
-      <c r="I10" s="14" t="str">
+        <v>CN_10_04_CO_IMG01_zoom</v>
+      </c>
+      <c r="I10" s="13" t="str">
         <f ca="1">IF(OR($B10&lt;&gt;"",$J10&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E10,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="64" t="s">
-        <v>193</v>
-      </c>
-      <c r="K10" s="65"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="14" customHeight="1">
-      <c r="A11" s="13" t="str">
+      <c r="J10" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="21" t="str">
+      <c r="B11" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F11" s="14" t="str">
+      <c r="D11" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_08_01_REC10_IMG02_small</v>
-      </c>
-      <c r="G11" s="14" t="str">
+        <v>CN_10_04_CO_IMG02_small</v>
+      </c>
+      <c r="G11" s="13" t="str">
         <f ca="1">IF($F11&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H11" s="14" t="str">
+      <c r="H11" s="13" t="str">
         <f t="shared" ref="H11:H74" ca="1" si="5">IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_08_01_REC10_IMG02_zoom</v>
-      </c>
-      <c r="I11" s="14" t="str">
+        <v>CN_10_04_CO_IMG02_zoom</v>
+      </c>
+      <c r="I11" s="13" t="str">
         <f ca="1">IF(OR($B11&lt;&gt;"",$J11&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E11,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1">
-      <c r="A12" s="13" t="str">
+      <c r="J11" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="65"/>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="21" t="str">
+      <c r="B12" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D12" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F12" s="14" t="str">
+      <c r="D12" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG03_small</v>
-      </c>
-      <c r="G12" s="14" t="str">
+        <v>CN_10_04_CO_IMG03_small</v>
+      </c>
+      <c r="G12" s="13" t="str">
         <f ca="1">IF($F12&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H12" s="14" t="str">
+      <c r="H12" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG03_zoom</v>
-      </c>
-      <c r="I12" s="14" t="str">
+        <v>CN_10_04_CO_IMG03_zoom</v>
+      </c>
+      <c r="I12" s="13" t="str">
         <f ca="1">IF(OR($B12&lt;&gt;"",$J12&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E12,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="K12" s="65"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="26">
-      <c r="A13" s="13" t="str">
+      <c r="J12" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="21" t="str">
+      <c r="B13" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D13" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F13" s="14" t="str">
+      <c r="D13" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG04_small</v>
-      </c>
-      <c r="G13" s="14" t="str">
+        <v>CN_10_04_CO_IMG04_small</v>
+      </c>
+      <c r="G13" s="13" t="str">
         <f ca="1">IF($F13&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H13" s="14" t="str">
+      <c r="H13" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG04_zoom</v>
-      </c>
-      <c r="I13" s="14" t="str">
+        <v>CN_10_04_CO_IMG04_zoom</v>
+      </c>
+      <c r="I13" s="13" t="str">
         <f ca="1">IF(OR($B13&lt;&gt;"",$J13&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E13,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="65"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="26">
-      <c r="A14" s="13" t="str">
+      <c r="J13" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="64"/>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C14" s="21" t="str">
+      <c r="B14" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D14" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F14" s="14" t="str">
+      <c r="D14" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG05_small</v>
-      </c>
-      <c r="G14" s="14" t="str">
+        <v>CN_10_04_CO_IMG05_small</v>
+      </c>
+      <c r="G14" s="13" t="str">
         <f ca="1">IF($F14&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG05_zoom</v>
-      </c>
-      <c r="I14" s="14" t="str">
+        <v>CN_10_04_CO_IMG05_zoom</v>
+      </c>
+      <c r="I14" s="13" t="str">
         <f ca="1">IF(OR($B14&lt;&gt;"",$J14&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E14,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="65"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="26">
-      <c r="A15" s="13" t="str">
+      <c r="J14" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="K14" s="64"/>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>197</v>
-      </c>
-      <c r="C15" s="21" t="str">
+      <c r="B15" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D15" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="14" t="str">
+      <c r="D15" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG06_small</v>
-      </c>
-      <c r="G15" s="14" t="str">
+        <v>CN_10_04_CO_IMG06_small</v>
+      </c>
+      <c r="G15" s="13" t="str">
         <f ca="1">IF($F15&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H15" s="14" t="str">
+      <c r="H15" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG06_zoom</v>
-      </c>
-      <c r="I15" s="14" t="str">
+        <v>CN_10_04_CO_IMG06_zoom</v>
+      </c>
+      <c r="I15" s="13" t="str">
         <f ca="1">IF(OR($B15&lt;&gt;"",$J15&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E15,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="26">
-      <c r="A16" s="13" t="str">
+      <c r="J15" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="66"/>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="21" t="str">
+      <c r="B16" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D16" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="14" t="str">
+      <c r="D16" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG07_small</v>
-      </c>
-      <c r="G16" s="14" t="str">
+        <v>CN_10_04_CO_IMG07_small</v>
+      </c>
+      <c r="G16" s="13" t="str">
         <f ca="1">IF($F16&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H16" s="14" t="str">
+      <c r="H16" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG07_zoom</v>
-      </c>
-      <c r="I16" s="14" t="str">
+        <v>CN_10_04_CO_IMG07_zoom</v>
+      </c>
+      <c r="I16" s="13" t="str">
         <f ca="1">IF(OR($B16&lt;&gt;"",$J16&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E16,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="69"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A17" s="13" t="str">
+      <c r="J16" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="68"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="21" t="str">
+      <c r="B17" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D17" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F17" s="14" t="str">
+      <c r="D17" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG08_small</v>
-      </c>
-      <c r="G17" s="14" t="str">
+        <v>CN_10_04_CO_IMG08_small</v>
+      </c>
+      <c r="G17" s="13" t="str">
         <f ca="1">IF($F17&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H17" s="14" t="str">
+      <c r="H17" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG08_zoom</v>
-      </c>
-      <c r="I17" s="14" t="str">
+        <v>CN_10_04_CO_IMG08_zoom</v>
+      </c>
+      <c r="I17" s="13" t="str">
         <f ca="1">IF(OR($B17&lt;&gt;"",$J17&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E17,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A18" s="13" t="str">
+      <c r="J17" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="66"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C18" s="21" t="str">
+      <c r="B18" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D18" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F18" s="14" t="str">
+      <c r="D18" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F18" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG09_small</v>
-      </c>
-      <c r="G18" s="14" t="str">
+        <v>CN_10_04_CO_IMG09_small</v>
+      </c>
+      <c r="G18" s="13" t="str">
         <f ca="1">IF($F18&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H18" s="14" t="str">
+      <c r="H18" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG09_zoom</v>
-      </c>
-      <c r="I18" s="14" t="str">
+        <v>CN_10_04_CO_IMG09_zoom</v>
+      </c>
+      <c r="I18" s="13" t="str">
         <f ca="1">IF(OR($B18&lt;&gt;"",$J18&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E18,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A19" s="13" t="str">
+      <c r="J18" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="K18" s="66"/>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>201</v>
-      </c>
-      <c r="C19" s="21" t="str">
+      <c r="B19" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D19" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F19" s="14" t="str">
+      <c r="D19" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG10_small</v>
-      </c>
-      <c r="G19" s="14" t="str">
+        <v>CN_10_04_CO_IMG10_small</v>
+      </c>
+      <c r="G19" s="13" t="str">
         <f ca="1">IF($F19&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H19" s="14" t="str">
+      <c r="H19" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG10_zoom</v>
-      </c>
-      <c r="I19" s="14" t="str">
+        <v>CN_10_04_CO_IMG10_zoom</v>
+      </c>
+      <c r="I19" s="13" t="str">
         <f ca="1">IF(OR($B19&lt;&gt;"",$J19&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E19,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="69"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1">
-      <c r="A20" s="13" t="str">
+      <c r="J19" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="K19" s="68"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="21" t="str">
+      <c r="B20" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D20" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="14" t="str">
+      <c r="D20" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG11_small</v>
-      </c>
-      <c r="G20" s="14" t="str">
+        <v>CN_10_04_CO_IMG11_small</v>
+      </c>
+      <c r="G20" s="13" t="str">
         <f ca="1">IF($F20&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG11_zoom</v>
-      </c>
-      <c r="I20" s="14" t="str">
+        <v>CN_10_04_CO_IMG11_zoom</v>
+      </c>
+      <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A21" s="13" t="str">
+      <c r="J20" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" s="66"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="21" t="str">
+      <c r="B21" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="14" t="str">
+      <c r="D21" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG12_small</v>
-      </c>
-      <c r="G21" s="14" t="str">
+        <v>CN_10_04_CO_IMG12_small</v>
+      </c>
+      <c r="G21" s="13" t="str">
         <f ca="1">IF($F21&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H21" s="14" t="str">
+      <c r="H21" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG12_zoom</v>
-      </c>
-      <c r="I21" s="14" t="str">
+        <v>CN_10_04_CO_IMG12_zoom</v>
+      </c>
+      <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="67" t="s">
-        <v>209</v>
-      </c>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A22" s="13" t="str">
+      <c r="J21" s="66" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="66"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG13</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="21" t="str">
+      <c r="B22" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D22" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="14" t="str">
+      <c r="D22" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG13_small</v>
-      </c>
-      <c r="G22" s="14" t="str">
+        <v>CN_10_04_CO_IMG13_small</v>
+      </c>
+      <c r="G22" s="13" t="str">
         <f ca="1">IF($F22&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H22" s="14" t="str">
+      <c r="H22" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG13_zoom</v>
-      </c>
-      <c r="I22" s="14" t="str">
+        <v>CN_10_04_CO_IMG13_zoom</v>
+      </c>
+      <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="64" t="s">
-        <v>211</v>
-      </c>
-      <c r="K22" s="70"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A23" s="13" t="str">
+      <c r="J22" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="K22" s="69"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG14</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>212</v>
-      </c>
-      <c r="C23" s="21" t="str">
+      <c r="B23" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D23" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="14" t="str">
+      <c r="D23" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG14_small</v>
-      </c>
-      <c r="G23" s="14" t="str">
+        <v>CN_10_04_CO_IMG14_small</v>
+      </c>
+      <c r="G23" s="13" t="str">
         <f ca="1">IF($F23&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H23" s="14" t="str">
+      <c r="H23" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG14_zoom</v>
-      </c>
-      <c r="I23" s="14" t="str">
+        <v>CN_10_04_CO_IMG14_zoom</v>
+      </c>
+      <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="65" t="s">
-        <v>213</v>
-      </c>
-      <c r="K23" s="65"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A24" s="13" t="str">
+      <c r="J23" s="64" t="s">
+        <v>212</v>
+      </c>
+      <c r="K23" s="64"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
       </c>
-      <c r="B24" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="21" t="str">
+      <c r="B24" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D24" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E24" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="14" t="str">
+      <c r="D24" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F24" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG15_small</v>
-      </c>
-      <c r="G24" s="14" t="str">
+        <v>CN_10_04_CO_IMG15_small</v>
+      </c>
+      <c r="G24" s="13" t="str">
         <f ca="1">IF($F24&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H24" s="14" t="str">
+      <c r="H24" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG15_zoom</v>
-      </c>
-      <c r="I24" s="14" t="str">
+        <v>CN_10_04_CO_IMG15_zoom</v>
+      </c>
+      <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="64" t="s">
-        <v>214</v>
-      </c>
-      <c r="K24" s="66"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="52">
-      <c r="A25" s="13" t="str">
+      <c r="J24" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="65"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG16</v>
       </c>
-      <c r="B25" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="C25" s="21" t="str">
+      <c r="B25" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D25" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="14" t="str">
+      <c r="D25" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG16_small</v>
-      </c>
-      <c r="G25" s="14" t="str">
+        <v>CN_10_04_CO_IMG16_small</v>
+      </c>
+      <c r="G25" s="13" t="str">
         <f ca="1">IF($F25&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H25" s="14" t="str">
+      <c r="H25" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG16_zoom</v>
-      </c>
-      <c r="I25" s="14" t="str">
+        <v>CN_10_04_CO_IMG16_zoom</v>
+      </c>
+      <c r="I25" s="13" t="str">
         <f ca="1">IF(OR($B25&lt;&gt;"",$J25&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E25,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" s="64" t="s">
         <v>216</v>
       </c>
-      <c r="K25" s="65" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A26" s="13" t="str">
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG17</v>
       </c>
-      <c r="B26" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="21" t="str">
+      <c r="B26" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D26" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="14" t="str">
+      <c r="D26" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG17_small</v>
-      </c>
-      <c r="G26" s="14" t="str">
+        <v>CN_10_04_CO_IMG17_small</v>
+      </c>
+      <c r="G26" s="13" t="str">
         <f ca="1">IF($F26&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H26" s="14" t="str">
+      <c r="H26" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG17_zoom</v>
-      </c>
-      <c r="I26" s="14" t="str">
+        <v>CN_10_04_CO_IMG17_zoom</v>
+      </c>
+      <c r="I26" s="13" t="str">
         <f ca="1">IF(OR($B26&lt;&gt;"",$J26&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E26,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="K26" s="65"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A27" s="13" t="str">
+      <c r="J26" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="K26" s="64"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG18</v>
       </c>
-      <c r="B27" s="63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="21" t="str">
+      <c r="B27" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D27" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E27" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F27" s="14" t="str">
+      <c r="D27" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG18_small</v>
-      </c>
-      <c r="G27" s="14" t="str">
+        <v>CN_10_04_CO_IMG18_small</v>
+      </c>
+      <c r="G27" s="13" t="str">
         <f ca="1">IF($F27&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG18_zoom</v>
-      </c>
-      <c r="I27" s="14" t="str">
+        <v>CN_10_04_CO_IMG18_zoom</v>
+      </c>
+      <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="65" t="s">
-        <v>220</v>
-      </c>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="39">
-      <c r="A28" s="13" t="str">
+      <c r="J27" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" s="64"/>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG19</v>
       </c>
-      <c r="B28" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="C28" s="21" t="str">
+      <c r="B28" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D28" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="14" t="str">
+      <c r="D28" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG19_small</v>
-      </c>
-      <c r="G28" s="14" t="str">
+        <v>CN_10_04_CO_IMG19_small</v>
+      </c>
+      <c r="G28" s="13" t="str">
         <f ca="1">IF($F28&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG19_zoom</v>
-      </c>
-      <c r="I28" s="14" t="str">
+        <v>CN_10_04_CO_IMG19_zoom</v>
+      </c>
+      <c r="I28" s="13" t="str">
         <f ca="1">IF(OR($B28&lt;&gt;"",$J28&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E28,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="K28" s="65"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="65">
-      <c r="A29" s="13" t="str">
+      <c r="J28" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="K28" s="64"/>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG20</v>
       </c>
-      <c r="B29" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="21" t="str">
+      <c r="B29" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D29" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="14" t="str">
+      <c r="D29" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG20_small</v>
-      </c>
-      <c r="G29" s="14" t="str">
+        <v>CN_10_04_CO_IMG20_small</v>
+      </c>
+      <c r="G29" s="13" t="str">
         <f ca="1">IF($F29&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG20_zoom</v>
-      </c>
-      <c r="I29" s="14" t="str">
+        <v>CN_10_04_CO_IMG20_zoom</v>
+      </c>
+      <c r="I29" s="13" t="str">
         <f ca="1">IF(OR($B29&lt;&gt;"",$J29&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E29,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="K29" s="65" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A30" s="13" t="str">
+      <c r="J29" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" s="64" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG21</v>
       </c>
-      <c r="B30" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C30" s="21" t="str">
+      <c r="B30" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D30" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="14" t="str">
+      <c r="D30" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG21_small</v>
-      </c>
-      <c r="G30" s="14" t="str">
+        <v>CN_10_04_CO_IMG21_small</v>
+      </c>
+      <c r="G30" s="13" t="str">
         <f ca="1">IF($F30&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG21_zoom</v>
-      </c>
-      <c r="I30" s="14" t="str">
+        <v>CN_10_04_CO_IMG21_zoom</v>
+      </c>
+      <c r="I30" s="13" t="str">
         <f ca="1">IF(OR($B30&lt;&gt;"",$J30&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E30,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="J30" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="K30" s="65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A31" s="13" t="str">
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG22</v>
       </c>
-      <c r="B31" s="63" t="s">
-        <v>228</v>
-      </c>
-      <c r="C31" s="21" t="str">
+      <c r="B31" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D31" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="E31" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F31" s="14" t="str">
+      <c r="D31" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG22_small</v>
-      </c>
-      <c r="G31" s="14" t="str">
+        <v>CN_10_04_CO_IMG22_small</v>
+      </c>
+      <c r="G31" s="13" t="str">
         <f ca="1">IF($F31&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H31" s="14" t="str">
+      <c r="H31" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG22_zoom</v>
-      </c>
-      <c r="I31" s="14" t="str">
+        <v>CN_10_04_CO_IMG22_zoom</v>
+      </c>
+      <c r="I31" s="13" t="str">
         <f ca="1">IF(OR($B31&lt;&gt;"",$J31&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E31,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J31" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A32" s="13" t="str">
+      <c r="J31" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" s="64"/>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG23</v>
       </c>
-      <c r="B32" s="63" t="s">
-        <v>230</v>
-      </c>
-      <c r="C32" s="21" t="str">
+      <c r="B32" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D32" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E32" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F32" s="14" t="str">
+      <c r="D32" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG23_small</v>
-      </c>
-      <c r="G32" s="14" t="str">
+        <v>CN_10_04_CO_IMG23_small</v>
+      </c>
+      <c r="G32" s="13" t="str">
         <f ca="1">IF($F32&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG23_zoom</v>
-      </c>
-      <c r="I32" s="14" t="str">
+        <v>CN_10_04_CO_IMG23_zoom</v>
+      </c>
+      <c r="I32" s="13" t="str">
         <f ca="1">IF(OR($B32&lt;&gt;"",$J32&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E32,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J32" s="65" t="s">
+      <c r="J32" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="65" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A33" s="13" t="str">
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG24</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="C33" s="21" t="str">
+      <c r="B33" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D33" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E33" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="14" t="str">
+      <c r="D33" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG24_small</v>
-      </c>
-      <c r="G33" s="14" t="str">
+        <v>CN_10_04_CO_IMG24_small</v>
+      </c>
+      <c r="G33" s="13" t="str">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG24_zoom</v>
-      </c>
-      <c r="I33" s="14" t="str">
+        <v>CN_10_04_CO_IMG24_zoom</v>
+      </c>
+      <c r="I33" s="13" t="str">
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="65" t="s">
-        <v>234</v>
-      </c>
-      <c r="K33" s="65" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="130">
-      <c r="A34" s="13" t="str">
+      <c r="J33" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1" ht="131.94999999999999" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG25</v>
       </c>
-      <c r="B34" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="C34" s="21" t="str">
+      <c r="B34" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D34" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E34" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" s="14" t="str">
+      <c r="D34" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG25_small</v>
-      </c>
-      <c r="G34" s="14" t="str">
+        <v>CN_10_04_CO_IMG25_small</v>
+      </c>
+      <c r="G34" s="13" t="str">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG25_zoom</v>
-      </c>
-      <c r="I34" s="14" t="str">
+        <v>CN_10_04_CO_IMG25_zoom</v>
+      </c>
+      <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="65" t="s">
+      <c r="J34" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="K34" s="64" t="s">
         <v>236</v>
       </c>
-      <c r="K34" s="65" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="26">
-      <c r="A35" s="13" t="str">
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG26</v>
       </c>
-      <c r="B35" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="C35" s="21" t="str">
+      <c r="B35" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D35" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="64" t="s">
-        <v>156</v>
-      </c>
-      <c r="F35" s="14" t="str">
+      <c r="D35" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="13" t="str">
         <f t="shared" si="4"/>
-        <v>CN_08_01_REC10_IMG26_small</v>
-      </c>
-      <c r="G35" s="14" t="str">
+        <v>CN_10_04_CO_IMG26_small</v>
+      </c>
+      <c r="G35" s="13" t="str">
         <f ca="1">IF($F35&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CN_08_01_REC10_IMG26_zoom</v>
-      </c>
-      <c r="I35" s="14" t="str">
+        <v>CN_10_04_CO_IMG26_zoom</v>
+      </c>
+      <c r="I35" s="13" t="str">
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="64"/>
-      <c r="K35" s="66"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
-      <c r="A36" s="13" t="str">
+      <c r="J35" s="63"/>
+      <c r="K35" s="65"/>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="21" t="str">
+      <c r="B36" s="62"/>
+      <c r="C36" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="14" t="str">
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G36" s="14" t="str">
+      <c r="G36" s="13" t="str">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H36" s="14" t="str">
+      <c r="H36" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I36" s="14" t="str">
+      <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="64"/>
-      <c r="K36" s="66"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
-      <c r="A37" s="13" t="str">
+      <c r="J36" s="63"/>
+      <c r="K36" s="65"/>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B37" s="63"/>
-      <c r="C37" s="21" t="str">
+      <c r="B37" s="62"/>
+      <c r="C37" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="14" t="str">
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G37" s="14" t="str">
+      <c r="G37" s="13" t="str">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H37" s="14" t="str">
+      <c r="H37" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I37" s="14" t="str">
+      <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="71"/>
-      <c r="K37" s="66"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
-      <c r="A38" s="13" t="str">
+      <c r="J37" s="70"/>
+      <c r="K37" s="65"/>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="21" t="str">
+      <c r="B38" s="62"/>
+      <c r="C38" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="14" t="str">
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G38" s="14" t="str">
+      <c r="G38" s="13" t="str">
         <f ca="1">IF($F38&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H38" s="14" t="str">
+      <c r="H38" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="14" t="str">
+      <c r="I38" s="13" t="str">
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="72"/>
-      <c r="K38" s="66"/>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
-      <c r="A39" s="13" t="str">
+      <c r="J38" s="71"/>
+      <c r="K38" s="65"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="21" t="str">
+      <c r="B39" s="62"/>
+      <c r="C39" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D39" s="64"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="14" t="str">
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G39" s="14" t="str">
+      <c r="G39" s="13" t="str">
         <f ca="1">IF($F39&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H39" s="14" t="str">
+      <c r="H39" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I39" s="14" t="str">
+      <c r="I39" s="13" t="str">
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="64"/>
-      <c r="K39" s="66"/>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
-      <c r="A40" s="13" t="str">
+      <c r="J39" s="63"/>
+      <c r="K39" s="65"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B40" s="63"/>
-      <c r="C40" s="21" t="str">
+      <c r="B40" s="62"/>
+      <c r="C40" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="14" t="str">
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G40" s="14" t="str">
+      <c r="G40" s="13" t="str">
         <f ca="1">IF($F40&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H40" s="14" t="str">
+      <c r="H40" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I40" s="14" t="str">
+      <c r="I40" s="13" t="str">
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="66"/>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
-      <c r="A41" s="13" t="str">
+      <c r="J40" s="63"/>
+      <c r="K40" s="65"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="21" t="str">
+      <c r="B41" s="62"/>
+      <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="14" t="str">
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G41" s="14" t="str">
+      <c r="G41" s="13" t="str">
         <f ca="1">IF($F41&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H41" s="14" t="str">
+      <c r="H41" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I41" s="14" t="str">
+      <c r="I41" s="13" t="str">
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J41" s="64"/>
-      <c r="K41" s="66"/>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
-      <c r="A42" s="13" t="str">
+      <c r="J41" s="63"/>
+      <c r="K41" s="65"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="21" t="str">
+      <c r="B42" s="62"/>
+      <c r="C42" s="20" t="str">
         <f t="shared" ref="C42:C73" si="7">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="14" t="str">
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G42" s="14" t="str">
+      <c r="G42" s="13" t="str">
         <f ca="1">IF($F42&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H42" s="14" t="str">
+      <c r="H42" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I42" s="14" t="str">
+      <c r="I42" s="13" t="str">
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J42" s="64"/>
-      <c r="K42" s="66"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
-      <c r="A43" s="13" t="str">
+      <c r="J42" s="63"/>
+      <c r="K42" s="65"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B43" s="63"/>
-      <c r="C43" s="21" t="str">
+      <c r="B43" s="62"/>
+      <c r="C43" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="14" t="str">
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G43" s="14" t="str">
+      <c r="G43" s="13" t="str">
         <f ca="1">IF($F43&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H43" s="14" t="str">
+      <c r="H43" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I43" s="14" t="str">
+      <c r="I43" s="13" t="str">
         <f ca="1">IF(OR($B43&lt;&gt;"",$J43&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J43" s="64"/>
-      <c r="K43" s="66"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
-      <c r="A44" s="13" t="str">
+      <c r="J43" s="63"/>
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="21" t="str">
+      <c r="B44" s="62"/>
+      <c r="C44" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="14" t="str">
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G44" s="14" t="str">
+      <c r="G44" s="13" t="str">
         <f ca="1">IF($F44&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H44" s="14" t="str">
+      <c r="H44" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I44" s="14" t="str">
+      <c r="I44" s="13" t="str">
         <f ca="1">IF(OR($B44&lt;&gt;"",$J44&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J44" s="64"/>
-      <c r="K44" s="66"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
-      <c r="A45" s="13" t="str">
+      <c r="J44" s="63"/>
+      <c r="K44" s="65"/>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B45" s="63"/>
-      <c r="C45" s="21" t="str">
+      <c r="B45" s="62"/>
+      <c r="C45" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="14" t="str">
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G45" s="14" t="str">
+      <c r="G45" s="13" t="str">
         <f ca="1">IF($F45&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H45" s="14" t="str">
+      <c r="H45" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I45" s="14" t="str">
+      <c r="I45" s="13" t="str">
         <f ca="1">IF(OR($B45&lt;&gt;"",$J45&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J45" s="64"/>
-      <c r="K45" s="66"/>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
-      <c r="A46" s="13" t="str">
+      <c r="J45" s="63"/>
+      <c r="K45" s="65"/>
+    </row>
+    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B46" s="63"/>
-      <c r="C46" s="21" t="str">
+      <c r="B46" s="62"/>
+      <c r="C46" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D46" s="64"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="14" t="str">
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G46" s="14" t="str">
+      <c r="G46" s="13" t="str">
         <f ca="1">IF($F46&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H46" s="14" t="str">
+      <c r="H46" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I46" s="14" t="str">
+      <c r="I46" s="13" t="str">
         <f ca="1">IF(OR($B46&lt;&gt;"",$J46&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E46,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J46" s="64"/>
-      <c r="K46" s="66"/>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
-      <c r="A47" s="13" t="str">
+      <c r="J46" s="63"/>
+      <c r="K46" s="65"/>
+    </row>
+    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B47" s="63"/>
-      <c r="C47" s="21" t="str">
+      <c r="B47" s="62"/>
+      <c r="C47" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D47" s="64"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="14" t="str">
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G47" s="14" t="str">
+      <c r="G47" s="13" t="str">
         <f ca="1">IF($F47&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H47" s="14" t="str">
+      <c r="H47" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="14" t="str">
+      <c r="I47" s="13" t="str">
         <f ca="1">IF(OR($B47&lt;&gt;"",$J47&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E47,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J47" s="64"/>
-      <c r="K47" s="66"/>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
-      <c r="A48" s="13" t="str">
+      <c r="J47" s="63"/>
+      <c r="K47" s="65"/>
+    </row>
+    <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="21" t="str">
+      <c r="B48" s="62"/>
+      <c r="C48" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="14" t="str">
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G48" s="14" t="str">
+      <c r="G48" s="13" t="str">
         <f ca="1">IF($F48&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H48" s="14" t="str">
+      <c r="H48" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I48" s="14" t="str">
+      <c r="I48" s="13" t="str">
         <f ca="1">IF(OR($B48&lt;&gt;"",$J48&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E48,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J48" s="64"/>
-      <c r="K48" s="66"/>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
-      <c r="A49" s="13" t="str">
+      <c r="J48" s="63"/>
+      <c r="K48" s="65"/>
+    </row>
+    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="21" t="str">
+      <c r="B49" s="62"/>
+      <c r="C49" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="14" t="str">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G49" s="14" t="str">
+      <c r="G49" s="13" t="str">
         <f ca="1">IF($F49&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H49" s="14" t="str">
+      <c r="H49" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I49" s="14" t="str">
+      <c r="I49" s="13" t="str">
         <f ca="1">IF(OR($B49&lt;&gt;"",$J49&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E49,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J49" s="64"/>
-      <c r="K49" s="66"/>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
-      <c r="A50" s="13" t="str">
+      <c r="J49" s="63"/>
+      <c r="K49" s="65"/>
+    </row>
+    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="21" t="str">
+      <c r="B50" s="62"/>
+      <c r="C50" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="14" t="str">
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G50" s="14" t="str">
+      <c r="G50" s="13" t="str">
         <f ca="1">IF($F50&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H50" s="14" t="str">
+      <c r="H50" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I50" s="14" t="str">
+      <c r="I50" s="13" t="str">
         <f ca="1">IF(OR($B50&lt;&gt;"",$J50&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E50,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J50" s="64"/>
-      <c r="K50" s="66"/>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
-      <c r="A51" s="13" t="str">
+      <c r="J50" s="63"/>
+      <c r="K50" s="65"/>
+    </row>
+    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
       </c>
-      <c r="B51" s="63"/>
-      <c r="C51" s="21" t="str">
+      <c r="B51" s="62"/>
+      <c r="C51" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="14" t="str">
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G51" s="14" t="str">
+      <c r="G51" s="13" t="str">
         <f ca="1">IF($F51&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H51" s="14" t="str">
+      <c r="H51" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I51" s="14" t="str">
+      <c r="I51" s="13" t="str">
         <f ca="1">IF(OR($B51&lt;&gt;"",$J51&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E51,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J51" s="64"/>
-      <c r="K51" s="66"/>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
-      <c r="A52" s="13" t="str">
+      <c r="J51" s="63"/>
+      <c r="K51" s="65"/>
+    </row>
+    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="21" t="str">
+      <c r="B52" s="62"/>
+      <c r="C52" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="14" t="str">
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G52" s="14" t="str">
+      <c r="G52" s="13" t="str">
         <f ca="1">IF($F52&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H52" s="14" t="str">
+      <c r="H52" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I52" s="14" t="str">
+      <c r="I52" s="13" t="str">
         <f ca="1">IF(OR($B52&lt;&gt;"",$J52&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E52,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J52" s="64"/>
-      <c r="K52" s="66"/>
-    </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
-      <c r="A53" s="13" t="str">
+      <c r="J52" s="63"/>
+      <c r="K52" s="65"/>
+    </row>
+    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="21" t="str">
+      <c r="B53" s="62"/>
+      <c r="C53" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="14" t="str">
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G53" s="14" t="str">
+      <c r="G53" s="13" t="str">
         <f ca="1">IF($F53&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H53" s="14" t="str">
+      <c r="H53" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I53" s="14" t="str">
+      <c r="I53" s="13" t="str">
         <f ca="1">IF(OR($B53&lt;&gt;"",$J53&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E53,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J53" s="64"/>
-      <c r="K53" s="66"/>
-    </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
-      <c r="A54" s="13" t="str">
+      <c r="J53" s="63"/>
+      <c r="K53" s="65"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B54" s="63"/>
-      <c r="C54" s="21" t="str">
+      <c r="B54" s="62"/>
+      <c r="C54" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="14" t="str">
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G54" s="14" t="str">
+      <c r="G54" s="13" t="str">
         <f ca="1">IF($F54&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E54,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H54" s="14" t="str">
+      <c r="H54" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I54" s="14" t="str">
+      <c r="I54" s="13" t="str">
         <f ca="1">IF(OR($B54&lt;&gt;"",$J54&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E54,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E54,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J54" s="64"/>
-      <c r="K54" s="66"/>
-    </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
-      <c r="A55" s="13" t="str">
+      <c r="J54" s="63"/>
+      <c r="K54" s="65"/>
+    </row>
+    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B55" s="63"/>
-      <c r="C55" s="21" t="str">
+      <c r="B55" s="62"/>
+      <c r="C55" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="14" t="str">
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G55" s="14" t="str">
+      <c r="G55" s="13" t="str">
         <f ca="1">IF($F55&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E55,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H55" s="14" t="str">
+      <c r="H55" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I55" s="14" t="str">
+      <c r="I55" s="13" t="str">
         <f ca="1">IF(OR($B55&lt;&gt;"",$J55&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E55,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E55,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J55" s="64"/>
-      <c r="K55" s="66"/>
-    </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
-      <c r="A56" s="13" t="str">
+      <c r="J55" s="63"/>
+      <c r="K55" s="65"/>
+    </row>
+    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="21" t="str">
+      <c r="B56" s="62"/>
+      <c r="C56" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="14" t="str">
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G56" s="14" t="str">
+      <c r="G56" s="13" t="str">
         <f ca="1">IF($F56&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E56,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H56" s="14" t="str">
+      <c r="H56" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="13" t="str">
         <f ca="1">IF(OR($B56&lt;&gt;"",$J56&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E56,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E56,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J56" s="64"/>
-      <c r="K56" s="66"/>
-    </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
-      <c r="A57" s="13" t="str">
+      <c r="J56" s="63"/>
+      <c r="K56" s="65"/>
+    </row>
+    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B57" s="63"/>
-      <c r="C57" s="21" t="str">
+      <c r="B57" s="62"/>
+      <c r="C57" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D57" s="64"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="14" t="str">
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G57" s="14" t="str">
+      <c r="G57" s="13" t="str">
         <f ca="1">IF($F57&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E57,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H57" s="14" t="str">
+      <c r="H57" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I57" s="14" t="str">
+      <c r="I57" s="13" t="str">
         <f ca="1">IF(OR($B57&lt;&gt;"",$J57&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E57,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E57,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J57" s="64"/>
-      <c r="K57" s="66"/>
-    </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
-      <c r="A58" s="13" t="str">
+      <c r="J57" s="63"/>
+      <c r="K57" s="65"/>
+    </row>
+    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="21" t="str">
+      <c r="B58" s="62"/>
+      <c r="C58" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D58" s="64"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="14" t="str">
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G58" s="14" t="str">
+      <c r="G58" s="13" t="str">
         <f ca="1">IF($F58&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E58,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H58" s="14" t="str">
+      <c r="H58" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I58" s="14" t="str">
+      <c r="I58" s="13" t="str">
         <f ca="1">IF(OR($B58&lt;&gt;"",$J58&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E58,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E58,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J58" s="64"/>
-      <c r="K58" s="66"/>
-    </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
-      <c r="A59" s="13" t="str">
+      <c r="J58" s="63"/>
+      <c r="K58" s="65"/>
+    </row>
+    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B59" s="63"/>
-      <c r="C59" s="21" t="str">
+      <c r="B59" s="62"/>
+      <c r="C59" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D59" s="64"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="14" t="str">
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G59" s="14" t="str">
+      <c r="G59" s="13" t="str">
         <f ca="1">IF($F59&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E59,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H59" s="14" t="str">
+      <c r="H59" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I59" s="14" t="str">
+      <c r="I59" s="13" t="str">
         <f ca="1">IF(OR($B59&lt;&gt;"",$J59&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E59,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E59,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J59" s="64"/>
-      <c r="K59" s="66"/>
-    </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
-      <c r="A60" s="13" t="str">
+      <c r="J59" s="63"/>
+      <c r="K59" s="65"/>
+    </row>
+    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="21" t="str">
+      <c r="B60" s="62"/>
+      <c r="C60" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="14" t="str">
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G60" s="14" t="str">
+      <c r="G60" s="13" t="str">
         <f ca="1">IF($F60&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E60,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H60" s="14" t="str">
+      <c r="H60" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I60" s="14" t="str">
+      <c r="I60" s="13" t="str">
         <f ca="1">IF(OR($B60&lt;&gt;"",$J60&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E60,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E60,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J60" s="64"/>
-      <c r="K60" s="66"/>
-    </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
-      <c r="A61" s="13" t="str">
+      <c r="J60" s="63"/>
+      <c r="K60" s="65"/>
+    </row>
+    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="21" t="str">
+      <c r="B61" s="62"/>
+      <c r="C61" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="14" t="str">
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G61" s="14" t="str">
+      <c r="G61" s="13" t="str">
         <f ca="1">IF($F61&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E61,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H61" s="14" t="str">
+      <c r="H61" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I61" s="14" t="str">
+      <c r="I61" s="13" t="str">
         <f ca="1">IF(OR($B61&lt;&gt;"",$J61&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E61,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E61,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J61" s="64"/>
-      <c r="K61" s="66"/>
-    </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
-      <c r="A62" s="13" t="str">
+      <c r="J61" s="63"/>
+      <c r="K61" s="65"/>
+    </row>
+    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="21" t="str">
+      <c r="B62" s="62"/>
+      <c r="C62" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="14" t="str">
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G62" s="14" t="str">
+      <c r="G62" s="13" t="str">
         <f ca="1">IF($F62&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E62,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H62" s="14" t="str">
+      <c r="H62" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I62" s="14" t="str">
+      <c r="I62" s="13" t="str">
         <f ca="1">IF(OR($B62&lt;&gt;"",$J62&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E62,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E62,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J62" s="64"/>
-      <c r="K62" s="66"/>
-    </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
-      <c r="A63" s="13" t="str">
+      <c r="J62" s="63"/>
+      <c r="K62" s="65"/>
+    </row>
+    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="21" t="str">
+      <c r="B63" s="62"/>
+      <c r="C63" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="14" t="str">
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G63" s="14" t="str">
+      <c r="G63" s="13" t="str">
         <f ca="1">IF($F63&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E63,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H63" s="14" t="str">
+      <c r="H63" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I63" s="14" t="str">
+      <c r="I63" s="13" t="str">
         <f ca="1">IF(OR($B63&lt;&gt;"",$J63&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E63,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E63,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J63" s="64"/>
-      <c r="K63" s="66"/>
-    </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
-      <c r="A64" s="13" t="str">
+      <c r="J63" s="63"/>
+      <c r="K63" s="65"/>
+    </row>
+    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="21" t="str">
+      <c r="B64" s="62"/>
+      <c r="C64" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="14" t="str">
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G64" s="14" t="str">
+      <c r="G64" s="13" t="str">
         <f ca="1">IF($F64&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E64,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H64" s="14" t="str">
+      <c r="H64" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I64" s="14" t="str">
+      <c r="I64" s="13" t="str">
         <f ca="1">IF(OR($B64&lt;&gt;"",$J64&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E64,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E64,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J64" s="64"/>
-      <c r="K64" s="66"/>
-    </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
-      <c r="A65" s="13" t="str">
+      <c r="J64" s="63"/>
+      <c r="K64" s="65"/>
+    </row>
+    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B65" s="63"/>
-      <c r="C65" s="21" t="str">
+      <c r="B65" s="62"/>
+      <c r="C65" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="14" t="str">
+      <c r="D65" s="63"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G65" s="14" t="str">
+      <c r="G65" s="13" t="str">
         <f ca="1">IF($F65&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E65,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H65" s="14" t="str">
+      <c r="H65" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I65" s="14" t="str">
+      <c r="I65" s="13" t="str">
         <f ca="1">IF(OR($B65&lt;&gt;"",$J65&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E65,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E65,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J65" s="64"/>
-      <c r="K65" s="66"/>
-    </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
-      <c r="A66" s="13" t="str">
+      <c r="J65" s="63"/>
+      <c r="K65" s="65"/>
+    </row>
+    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="21" t="str">
+      <c r="B66" s="62"/>
+      <c r="C66" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="14" t="str">
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G66" s="14" t="str">
+      <c r="G66" s="13" t="str">
         <f ca="1">IF($F66&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E66,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H66" s="14" t="str">
+      <c r="H66" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I66" s="14" t="str">
+      <c r="I66" s="13" t="str">
         <f ca="1">IF(OR($B66&lt;&gt;"",$J66&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E66,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E66,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J66" s="64"/>
-      <c r="K66" s="66"/>
-    </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
-      <c r="A67" s="13" t="str">
+      <c r="J66" s="63"/>
+      <c r="K66" s="65"/>
+    </row>
+    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B67" s="63"/>
-      <c r="C67" s="21" t="str">
+      <c r="B67" s="62"/>
+      <c r="C67" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="14" t="str">
+      <c r="D67" s="63"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G67" s="14" t="str">
+      <c r="G67" s="13" t="str">
         <f ca="1">IF($F67&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E67,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H67" s="14" t="str">
+      <c r="H67" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I67" s="14" t="str">
+      <c r="I67" s="13" t="str">
         <f ca="1">IF(OR($B67&lt;&gt;"",$J67&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E67,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E67,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J67" s="64"/>
-      <c r="K67" s="66"/>
-    </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
-      <c r="A68" s="13" t="str">
+      <c r="J67" s="63"/>
+      <c r="K67" s="65"/>
+    </row>
+    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="21" t="str">
+      <c r="B68" s="62"/>
+      <c r="C68" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="14" t="str">
+      <c r="D68" s="63"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G68" s="14" t="str">
+      <c r="G68" s="13" t="str">
         <f ca="1">IF($F68&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E68,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H68" s="14" t="str">
+      <c r="H68" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I68" s="14" t="str">
+      <c r="I68" s="13" t="str">
         <f ca="1">IF(OR($B68&lt;&gt;"",$J68&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E68,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E68,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J68" s="64"/>
-      <c r="K68" s="66"/>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
-      <c r="A69" s="13" t="str">
+      <c r="J68" s="63"/>
+      <c r="K68" s="65"/>
+    </row>
+    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B69" s="63"/>
-      <c r="C69" s="21" t="str">
+      <c r="B69" s="62"/>
+      <c r="C69" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="14" t="str">
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G69" s="14" t="str">
+      <c r="G69" s="13" t="str">
         <f ca="1">IF($F69&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E69,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H69" s="14" t="str">
+      <c r="H69" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I69" s="14" t="str">
+      <c r="I69" s="13" t="str">
         <f ca="1">IF(OR($B69&lt;&gt;"",$J69&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E69,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E69,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J69" s="64"/>
-      <c r="K69" s="66"/>
-    </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
-      <c r="A70" s="13" t="str">
+      <c r="J69" s="63"/>
+      <c r="K69" s="65"/>
+    </row>
+    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B70" s="63"/>
-      <c r="C70" s="21" t="str">
+      <c r="B70" s="62"/>
+      <c r="C70" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="14" t="str">
+      <c r="D70" s="63"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G70" s="14" t="str">
+      <c r="G70" s="13" t="str">
         <f ca="1">IF($F70&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E70,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H70" s="14" t="str">
+      <c r="H70" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I70" s="14" t="str">
+      <c r="I70" s="13" t="str">
         <f ca="1">IF(OR($B70&lt;&gt;"",$J70&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E70,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E70,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J70" s="64"/>
-      <c r="K70" s="66"/>
-    </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
-      <c r="A71" s="13" t="str">
+      <c r="J70" s="63"/>
+      <c r="K70" s="65"/>
+    </row>
+    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B71" s="63"/>
-      <c r="C71" s="21" t="str">
+      <c r="B71" s="62"/>
+      <c r="C71" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="14" t="str">
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G71" s="14" t="str">
+      <c r="G71" s="13" t="str">
         <f ca="1">IF($F71&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E71,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H71" s="14" t="str">
+      <c r="H71" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I71" s="14" t="str">
+      <c r="I71" s="13" t="str">
         <f ca="1">IF(OR($B71&lt;&gt;"",$J71&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E71,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E71,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J71" s="64"/>
-      <c r="K71" s="66"/>
-    </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
-      <c r="A72" s="13" t="str">
+      <c r="J71" s="63"/>
+      <c r="K71" s="65"/>
+    </row>
+    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B72" s="63"/>
-      <c r="C72" s="21" t="str">
+      <c r="B72" s="62"/>
+      <c r="C72" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="14" t="str">
+      <c r="D72" s="63"/>
+      <c r="E72" s="63"/>
+      <c r="F72" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G72" s="14" t="str">
+      <c r="G72" s="13" t="str">
         <f ca="1">IF($F72&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E72,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H72" s="14" t="str">
+      <c r="H72" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I72" s="14" t="str">
+      <c r="I72" s="13" t="str">
         <f ca="1">IF(OR($B72&lt;&gt;"",$J72&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E72,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E72,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J72" s="64"/>
-      <c r="K72" s="66"/>
-    </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
-      <c r="A73" s="13" t="str">
+      <c r="J72" s="63"/>
+      <c r="K72" s="65"/>
+    </row>
+    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B73" s="63"/>
-      <c r="C73" s="21" t="str">
+      <c r="B73" s="62"/>
+      <c r="C73" s="20" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="14" t="str">
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G73" s="14" t="str">
+      <c r="G73" s="13" t="str">
         <f ca="1">IF($F73&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E73,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H73" s="14" t="str">
+      <c r="H73" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I73" s="14" t="str">
+      <c r="I73" s="13" t="str">
         <f ca="1">IF(OR($B73&lt;&gt;"",$J73&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E73,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E73,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J73" s="64"/>
-      <c r="K73" s="66"/>
-    </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
-      <c r="A74" s="13" t="str">
+      <c r="J73" s="63"/>
+      <c r="K73" s="65"/>
+    </row>
+    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="21" t="str">
+      <c r="B74" s="62"/>
+      <c r="C74" s="20" t="str">
         <f t="shared" ref="C74:C105" si="9">IF(OR(B74&lt;&gt;"",J74&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="14" t="str">
+      <c r="D74" s="63"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G74" s="14" t="str">
+      <c r="G74" s="13" t="str">
         <f ca="1">IF($F74&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E74,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H74" s="14" t="str">
+      <c r="H74" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="I74" s="14" t="str">
+      <c r="I74" s="13" t="str">
         <f ca="1">IF(OR($B74&lt;&gt;"",$J74&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E74,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E74,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J74" s="64"/>
-      <c r="K74" s="66"/>
-    </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
-      <c r="A75" s="13" t="str">
+      <c r="J74" s="63"/>
+      <c r="K74" s="65"/>
+    </row>
+    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="21" t="str">
+      <c r="B75" s="62"/>
+      <c r="C75" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="14" t="str">
+      <c r="D75" s="63"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="13" t="str">
         <f t="shared" ref="F75:F108" si="10">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
-      <c r="G75" s="14" t="str">
+      <c r="G75" s="13" t="str">
         <f ca="1">IF($F75&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E75,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H75" s="14" t="str">
+      <c r="H75" s="13" t="str">
         <f t="shared" ref="H75:H108" ca="1" si="11">IF(AND(I75&lt;&gt;"",I75&lt;&gt;0),IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
-      <c r="I75" s="14" t="str">
+      <c r="I75" s="13" t="str">
         <f ca="1">IF(OR($B75&lt;&gt;"",$J75&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E75,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E75,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J75" s="64"/>
-      <c r="K75" s="66"/>
-    </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
-      <c r="A76" s="13" t="str">
+      <c r="J75" s="63"/>
+      <c r="K75" s="65"/>
+    </row>
+    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="21" t="str">
+      <c r="B76" s="62"/>
+      <c r="C76" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="14" t="str">
+      <c r="D76" s="63"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G76" s="14" t="str">
+      <c r="G76" s="13" t="str">
         <f ca="1">IF($F76&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E76,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H76" s="14" t="str">
+      <c r="H76" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I76" s="14" t="str">
+      <c r="I76" s="13" t="str">
         <f ca="1">IF(OR($B76&lt;&gt;"",$J76&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E76,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E76,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J76" s="64"/>
-      <c r="K76" s="66"/>
-    </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
-      <c r="A77" s="13" t="str">
+      <c r="J76" s="63"/>
+      <c r="K76" s="65"/>
+    </row>
+    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B77" s="63"/>
-      <c r="C77" s="21" t="str">
+      <c r="B77" s="62"/>
+      <c r="C77" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="14" t="str">
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G77" s="14" t="str">
+      <c r="G77" s="13" t="str">
         <f ca="1">IF($F77&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E77,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H77" s="14" t="str">
+      <c r="H77" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I77" s="14" t="str">
+      <c r="I77" s="13" t="str">
         <f ca="1">IF(OR($B77&lt;&gt;"",$J77&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E77,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E77,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J77" s="64"/>
-      <c r="K77" s="66"/>
-    </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
-      <c r="A78" s="13" t="str">
+      <c r="J77" s="63"/>
+      <c r="K77" s="65"/>
+    </row>
+    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="21" t="str">
+      <c r="B78" s="62"/>
+      <c r="C78" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="14" t="str">
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G78" s="14" t="str">
+      <c r="G78" s="13" t="str">
         <f ca="1">IF($F78&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E78,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H78" s="14" t="str">
+      <c r="H78" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I78" s="14" t="str">
+      <c r="I78" s="13" t="str">
         <f ca="1">IF(OR($B78&lt;&gt;"",$J78&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E78,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E78,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J78" s="64"/>
-      <c r="K78" s="66"/>
-    </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
-      <c r="A79" s="13" t="str">
+      <c r="J78" s="63"/>
+      <c r="K78" s="65"/>
+    </row>
+    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="21" t="str">
+      <c r="B79" s="62"/>
+      <c r="C79" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="14" t="str">
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G79" s="14" t="str">
+      <c r="G79" s="13" t="str">
         <f ca="1">IF($F79&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E79,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H79" s="14" t="str">
+      <c r="H79" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I79" s="14" t="str">
+      <c r="I79" s="13" t="str">
         <f ca="1">IF(OR($B79&lt;&gt;"",$J79&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E79,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E79,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J79" s="64"/>
-      <c r="K79" s="66"/>
-    </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
-      <c r="A80" s="13" t="str">
+      <c r="J79" s="63"/>
+      <c r="K79" s="65"/>
+    </row>
+    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B80" s="63"/>
-      <c r="C80" s="21" t="str">
+      <c r="B80" s="62"/>
+      <c r="C80" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="14" t="str">
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G80" s="14" t="str">
+      <c r="G80" s="13" t="str">
         <f ca="1">IF($F80&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E80,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H80" s="14" t="str">
+      <c r="H80" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I80" s="14" t="str">
+      <c r="I80" s="13" t="str">
         <f ca="1">IF(OR($B80&lt;&gt;"",$J80&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E80,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E80,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J80" s="64"/>
-      <c r="K80" s="66"/>
-    </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
-      <c r="A81" s="13" t="str">
+      <c r="J80" s="63"/>
+      <c r="K80" s="65"/>
+    </row>
+    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="21" t="str">
+      <c r="B81" s="62"/>
+      <c r="C81" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="14" t="str">
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G81" s="14" t="str">
+      <c r="G81" s="13" t="str">
         <f ca="1">IF($F81&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E81,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H81" s="14" t="str">
+      <c r="H81" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I81" s="14" t="str">
+      <c r="I81" s="13" t="str">
         <f ca="1">IF(OR($B81&lt;&gt;"",$J81&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E81,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E81,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J81" s="64"/>
-      <c r="K81" s="66"/>
-    </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
-      <c r="A82" s="13" t="str">
+      <c r="J81" s="63"/>
+      <c r="K81" s="65"/>
+    </row>
+    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="B82" s="63"/>
-      <c r="C82" s="21" t="str">
+      <c r="B82" s="62"/>
+      <c r="C82" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="14" t="str">
+      <c r="D82" s="63"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G82" s="14" t="str">
+      <c r="G82" s="13" t="str">
         <f ca="1">IF($F82&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E82,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H82" s="14" t="str">
+      <c r="H82" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I82" s="14" t="str">
+      <c r="I82" s="13" t="str">
         <f ca="1">IF(OR($B82&lt;&gt;"",$J82&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E82,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E82,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J82" s="64"/>
-      <c r="K82" s="66"/>
-    </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
-      <c r="A83" s="13" t="str">
+      <c r="J82" s="63"/>
+      <c r="K82" s="65"/>
+    </row>
+    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="21" t="str">
+      <c r="B83" s="62"/>
+      <c r="C83" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="14" t="str">
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G83" s="14" t="str">
+      <c r="G83" s="13" t="str">
         <f ca="1">IF($F83&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E83,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H83" s="14" t="str">
+      <c r="H83" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I83" s="14" t="str">
+      <c r="I83" s="13" t="str">
         <f ca="1">IF(OR($B83&lt;&gt;"",$J83&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E83,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E83,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J83" s="64"/>
-      <c r="K83" s="66"/>
-    </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
-      <c r="A84" s="13" t="str">
+      <c r="J83" s="63"/>
+      <c r="K83" s="65"/>
+    </row>
+    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="21" t="str">
+      <c r="B84" s="62"/>
+      <c r="C84" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="14" t="str">
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G84" s="14" t="str">
+      <c r="G84" s="13" t="str">
         <f ca="1">IF($F84&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E84,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H84" s="14" t="str">
+      <c r="H84" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I84" s="14" t="str">
+      <c r="I84" s="13" t="str">
         <f ca="1">IF(OR($B84&lt;&gt;"",$J84&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E84,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E84,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J84" s="64"/>
-      <c r="K84" s="66"/>
-    </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
-      <c r="A85" s="13" t="str">
+      <c r="J84" s="63"/>
+      <c r="K84" s="65"/>
+    </row>
+    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B85" s="63"/>
-      <c r="C85" s="21" t="str">
+      <c r="B85" s="62"/>
+      <c r="C85" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="14" t="str">
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G85" s="14" t="str">
+      <c r="G85" s="13" t="str">
         <f ca="1">IF($F85&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E85,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H85" s="14" t="str">
+      <c r="H85" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I85" s="14" t="str">
+      <c r="I85" s="13" t="str">
         <f ca="1">IF(OR($B85&lt;&gt;"",$J85&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E85,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E85,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J85" s="64"/>
-      <c r="K85" s="66"/>
-    </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
-      <c r="A86" s="13" t="str">
+      <c r="J85" s="63"/>
+      <c r="K85" s="65"/>
+    </row>
+    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="21" t="str">
+      <c r="B86" s="62"/>
+      <c r="C86" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="14" t="str">
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G86" s="14" t="str">
+      <c r="G86" s="13" t="str">
         <f ca="1">IF($F86&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E86,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H86" s="14" t="str">
+      <c r="H86" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I86" s="14" t="str">
+      <c r="I86" s="13" t="str">
         <f ca="1">IF(OR($B86&lt;&gt;"",$J86&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E86,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E86,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J86" s="64"/>
-      <c r="K86" s="66"/>
-    </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
-      <c r="A87" s="13" t="str">
+      <c r="J86" s="63"/>
+      <c r="K86" s="65"/>
+    </row>
+    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B87" s="63"/>
-      <c r="C87" s="21" t="str">
+      <c r="B87" s="62"/>
+      <c r="C87" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="14" t="str">
+      <c r="D87" s="63"/>
+      <c r="E87" s="63"/>
+      <c r="F87" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G87" s="14" t="str">
+      <c r="G87" s="13" t="str">
         <f ca="1">IF($F87&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E87,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H87" s="14" t="str">
+      <c r="H87" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I87" s="14" t="str">
+      <c r="I87" s="13" t="str">
         <f ca="1">IF(OR($B87&lt;&gt;"",$J87&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E87,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E87,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J87" s="64"/>
-      <c r="K87" s="66"/>
-    </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
-      <c r="A88" s="13" t="str">
+      <c r="J87" s="63"/>
+      <c r="K87" s="65"/>
+    </row>
+    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B88" s="63"/>
-      <c r="C88" s="21" t="str">
+      <c r="B88" s="62"/>
+      <c r="C88" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="14" t="str">
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G88" s="14" t="str">
+      <c r="G88" s="13" t="str">
         <f ca="1">IF($F88&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E88,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H88" s="14" t="str">
+      <c r="H88" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I88" s="14" t="str">
+      <c r="I88" s="13" t="str">
         <f ca="1">IF(OR($B88&lt;&gt;"",$J88&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E88,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E88,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J88" s="64"/>
-      <c r="K88" s="66"/>
-    </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
-      <c r="A89" s="13" t="str">
+      <c r="J88" s="63"/>
+      <c r="K88" s="65"/>
+    </row>
+    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B89" s="63"/>
-      <c r="C89" s="21" t="str">
+      <c r="B89" s="62"/>
+      <c r="C89" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="14" t="str">
+      <c r="D89" s="63"/>
+      <c r="E89" s="63"/>
+      <c r="F89" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G89" s="14" t="str">
+      <c r="G89" s="13" t="str">
         <f ca="1">IF($F89&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E89,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H89" s="14" t="str">
+      <c r="H89" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I89" s="14" t="str">
+      <c r="I89" s="13" t="str">
         <f ca="1">IF(OR($B89&lt;&gt;"",$J89&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E89,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E89,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J89" s="64"/>
-      <c r="K89" s="66"/>
-    </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
-      <c r="A90" s="13" t="str">
+      <c r="J89" s="63"/>
+      <c r="K89" s="65"/>
+    </row>
+    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B90" s="63"/>
-      <c r="C90" s="21" t="str">
+      <c r="B90" s="62"/>
+      <c r="C90" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="14" t="str">
+      <c r="D90" s="63"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G90" s="14" t="str">
+      <c r="G90" s="13" t="str">
         <f ca="1">IF($F90&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E90,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H90" s="14" t="str">
+      <c r="H90" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I90" s="14" t="str">
+      <c r="I90" s="13" t="str">
         <f ca="1">IF(OR($B90&lt;&gt;"",$J90&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E90,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E90,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J90" s="64"/>
-      <c r="K90" s="66"/>
-    </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
-      <c r="A91" s="13" t="str">
+      <c r="J90" s="63"/>
+      <c r="K90" s="65"/>
+    </row>
+    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B91" s="63"/>
-      <c r="C91" s="21" t="str">
+      <c r="B91" s="62"/>
+      <c r="C91" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="14" t="str">
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G91" s="14" t="str">
+      <c r="G91" s="13" t="str">
         <f ca="1">IF($F91&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E91,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H91" s="14" t="str">
+      <c r="H91" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I91" s="14" t="str">
+      <c r="I91" s="13" t="str">
         <f ca="1">IF(OR($B91&lt;&gt;"",$J91&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E91,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E91,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J91" s="64"/>
-      <c r="K91" s="66"/>
-    </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
-      <c r="A92" s="13" t="str">
+      <c r="J91" s="63"/>
+      <c r="K91" s="65"/>
+    </row>
+    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B92" s="63"/>
-      <c r="C92" s="21" t="str">
+      <c r="B92" s="62"/>
+      <c r="C92" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="14" t="str">
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G92" s="14" t="str">
+      <c r="G92" s="13" t="str">
         <f ca="1">IF($F92&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E92,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H92" s="14" t="str">
+      <c r="H92" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I92" s="14" t="str">
+      <c r="I92" s="13" t="str">
         <f ca="1">IF(OR($B92&lt;&gt;"",$J92&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E92,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E92,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J92" s="64"/>
-      <c r="K92" s="66"/>
-    </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
-      <c r="A93" s="13" t="str">
+      <c r="J92" s="63"/>
+      <c r="K92" s="65"/>
+    </row>
+    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B93" s="63"/>
-      <c r="C93" s="21" t="str">
+      <c r="B93" s="62"/>
+      <c r="C93" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="14" t="str">
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G93" s="14" t="str">
+      <c r="G93" s="13" t="str">
         <f ca="1">IF($F93&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E93,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H93" s="14" t="str">
+      <c r="H93" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I93" s="14" t="str">
+      <c r="I93" s="13" t="str">
         <f ca="1">IF(OR($B93&lt;&gt;"",$J93&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E93,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E93,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J93" s="64"/>
-      <c r="K93" s="66"/>
-    </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
-      <c r="A94" s="13" t="str">
+      <c r="J93" s="63"/>
+      <c r="K93" s="65"/>
+    </row>
+    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B94" s="63"/>
-      <c r="C94" s="21" t="str">
+      <c r="B94" s="62"/>
+      <c r="C94" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="14" t="str">
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G94" s="14" t="str">
+      <c r="G94" s="13" t="str">
         <f ca="1">IF($F94&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E94,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H94" s="14" t="str">
+      <c r="H94" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I94" s="14" t="str">
+      <c r="I94" s="13" t="str">
         <f ca="1">IF(OR($B94&lt;&gt;"",$J94&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E94,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E94,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J94" s="64"/>
-      <c r="K94" s="66"/>
-    </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
-      <c r="A95" s="13" t="str">
+      <c r="J94" s="63"/>
+      <c r="K94" s="65"/>
+    </row>
+    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B95" s="63"/>
-      <c r="C95" s="21" t="str">
+      <c r="B95" s="62"/>
+      <c r="C95" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="14" t="str">
+      <c r="D95" s="63"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G95" s="14" t="str">
+      <c r="G95" s="13" t="str">
         <f ca="1">IF($F95&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E95,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H95" s="14" t="str">
+      <c r="H95" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I95" s="14" t="str">
+      <c r="I95" s="13" t="str">
         <f ca="1">IF(OR($B95&lt;&gt;"",$J95&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E95,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E95,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J95" s="64"/>
-      <c r="K95" s="66"/>
-    </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
-      <c r="A96" s="13" t="str">
+      <c r="J95" s="63"/>
+      <c r="K95" s="65"/>
+    </row>
+    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B96" s="63"/>
-      <c r="C96" s="21" t="str">
+      <c r="B96" s="62"/>
+      <c r="C96" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="14" t="str">
+      <c r="D96" s="63"/>
+      <c r="E96" s="63"/>
+      <c r="F96" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G96" s="14" t="str">
+      <c r="G96" s="13" t="str">
         <f ca="1">IF($F96&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E96,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H96" s="14" t="str">
+      <c r="H96" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I96" s="14" t="str">
+      <c r="I96" s="13" t="str">
         <f ca="1">IF(OR($B96&lt;&gt;"",$J96&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E96,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E96,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J96" s="64"/>
-      <c r="K96" s="66"/>
-    </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
-      <c r="A97" s="13" t="str">
+      <c r="J96" s="63"/>
+      <c r="K96" s="65"/>
+    </row>
+    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B97" s="63"/>
-      <c r="C97" s="21" t="str">
+      <c r="B97" s="62"/>
+      <c r="C97" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="14" t="str">
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G97" s="14" t="str">
+      <c r="G97" s="13" t="str">
         <f ca="1">IF($F97&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E97,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H97" s="14" t="str">
+      <c r="H97" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I97" s="14" t="str">
+      <c r="I97" s="13" t="str">
         <f ca="1">IF(OR($B97&lt;&gt;"",$J97&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E97,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E97,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J97" s="64"/>
-      <c r="K97" s="66"/>
-    </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
-      <c r="A98" s="13" t="str">
+      <c r="J97" s="63"/>
+      <c r="K97" s="65"/>
+    </row>
+    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B98" s="63"/>
-      <c r="C98" s="21" t="str">
+      <c r="B98" s="62"/>
+      <c r="C98" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="14" t="str">
+      <c r="D98" s="63"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G98" s="14" t="str">
+      <c r="G98" s="13" t="str">
         <f ca="1">IF($F98&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E98,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H98" s="14" t="str">
+      <c r="H98" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I98" s="14" t="str">
+      <c r="I98" s="13" t="str">
         <f ca="1">IF(OR($B98&lt;&gt;"",$J98&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E98,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E98,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J98" s="64"/>
-      <c r="K98" s="66"/>
-    </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
-      <c r="A99" s="13" t="str">
+      <c r="J98" s="63"/>
+      <c r="K98" s="65"/>
+    </row>
+    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B99" s="63"/>
-      <c r="C99" s="21" t="str">
+      <c r="B99" s="62"/>
+      <c r="C99" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="14" t="str">
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G99" s="14" t="str">
+      <c r="G99" s="13" t="str">
         <f ca="1">IF($F99&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E99,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H99" s="14" t="str">
+      <c r="H99" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I99" s="14" t="str">
+      <c r="I99" s="13" t="str">
         <f ca="1">IF(OR($B99&lt;&gt;"",$J99&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E99,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E99,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J99" s="64"/>
-      <c r="K99" s="66"/>
-    </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
-      <c r="A100" s="13" t="str">
+      <c r="J99" s="63"/>
+      <c r="K99" s="65"/>
+    </row>
+    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B100" s="63"/>
-      <c r="C100" s="21" t="str">
+      <c r="B100" s="62"/>
+      <c r="C100" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="14" t="str">
+      <c r="D100" s="63"/>
+      <c r="E100" s="63"/>
+      <c r="F100" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G100" s="14" t="str">
+      <c r="G100" s="13" t="str">
         <f ca="1">IF($F100&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E100,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H100" s="14" t="str">
+      <c r="H100" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I100" s="14" t="str">
+      <c r="I100" s="13" t="str">
         <f ca="1">IF(OR($B100&lt;&gt;"",$J100&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E100,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E100,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J100" s="64"/>
-      <c r="K100" s="66"/>
-    </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
-      <c r="A101" s="13" t="str">
+      <c r="J100" s="63"/>
+      <c r="K100" s="65"/>
+    </row>
+    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B101" s="63"/>
-      <c r="C101" s="21" t="str">
+      <c r="B101" s="62"/>
+      <c r="C101" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="14" t="str">
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G101" s="14" t="str">
+      <c r="G101" s="13" t="str">
         <f ca="1">IF($F101&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E101,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H101" s="14" t="str">
+      <c r="H101" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I101" s="14" t="str">
+      <c r="I101" s="13" t="str">
         <f ca="1">IF(OR($B101&lt;&gt;"",$J101&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E101,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E101,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J101" s="64"/>
-      <c r="K101" s="66"/>
-    </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
-      <c r="A102" s="13" t="str">
+      <c r="J101" s="63"/>
+      <c r="K101" s="65"/>
+    </row>
+    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B102" s="63"/>
-      <c r="C102" s="21" t="str">
+      <c r="B102" s="62"/>
+      <c r="C102" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="14" t="str">
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G102" s="14" t="str">
+      <c r="G102" s="13" t="str">
         <f ca="1">IF($F102&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E102,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H102" s="14" t="str">
+      <c r="H102" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I102" s="14" t="str">
+      <c r="I102" s="13" t="str">
         <f ca="1">IF(OR($B102&lt;&gt;"",$J102&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E102,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E102,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J102" s="64"/>
-      <c r="K102" s="66"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
-      <c r="A103" s="13" t="str">
+      <c r="J102" s="63"/>
+      <c r="K102" s="65"/>
+    </row>
+    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B103" s="63"/>
-      <c r="C103" s="21" t="str">
+      <c r="B103" s="62"/>
+      <c r="C103" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="14" t="str">
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G103" s="14" t="str">
+      <c r="G103" s="13" t="str">
         <f ca="1">IF($F103&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E103,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H103" s="14" t="str">
+      <c r="H103" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I103" s="14" t="str">
+      <c r="I103" s="13" t="str">
         <f ca="1">IF(OR($B103&lt;&gt;"",$J103&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E103,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E103,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J103" s="64"/>
-      <c r="K103" s="66"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
-      <c r="A104" s="13" t="str">
+      <c r="J103" s="63"/>
+      <c r="K103" s="65"/>
+    </row>
+    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B104" s="63"/>
-      <c r="C104" s="21" t="str">
+      <c r="B104" s="62"/>
+      <c r="C104" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="14" t="str">
+      <c r="D104" s="63"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G104" s="14" t="str">
+      <c r="G104" s="13" t="str">
         <f ca="1">IF($F104&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E104,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H104" s="14" t="str">
+      <c r="H104" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I104" s="14" t="str">
+      <c r="I104" s="13" t="str">
         <f ca="1">IF(OR($B104&lt;&gt;"",$J104&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E104,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E104,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J104" s="64"/>
-      <c r="K104" s="66"/>
-    </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
-      <c r="A105" s="13" t="str">
+      <c r="J104" s="63"/>
+      <c r="K104" s="65"/>
+    </row>
+    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B105" s="63"/>
-      <c r="C105" s="21" t="str">
+      <c r="B105" s="62"/>
+      <c r="C105" s="20" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="14" t="str">
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G105" s="14" t="str">
+      <c r="G105" s="13" t="str">
         <f ca="1">IF($F105&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E105,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H105" s="14" t="str">
+      <c r="H105" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I105" s="14" t="str">
+      <c r="I105" s="13" t="str">
         <f ca="1">IF(OR($B105&lt;&gt;"",$J105&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E105,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E105,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J105" s="64"/>
-      <c r="K105" s="66"/>
-    </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
-      <c r="A106" s="13" t="str">
+      <c r="J105" s="63"/>
+      <c r="K105" s="65"/>
+    </row>
+    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B106" s="63"/>
-      <c r="C106" s="21" t="str">
+      <c r="B106" s="62"/>
+      <c r="C106" s="20" t="str">
         <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="14" t="str">
+      <c r="D106" s="63"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G106" s="14" t="str">
+      <c r="G106" s="13" t="str">
         <f ca="1">IF($F106&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E106,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H106" s="14" t="str">
+      <c r="H106" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I106" s="14" t="str">
+      <c r="I106" s="13" t="str">
         <f ca="1">IF(OR($B106&lt;&gt;"",$J106&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E106,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E106,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J106" s="64"/>
-      <c r="K106" s="66"/>
-    </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
-      <c r="A107" s="13" t="str">
+      <c r="J106" s="63"/>
+      <c r="K106" s="65"/>
+    </row>
+    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B107" s="63"/>
-      <c r="C107" s="21" t="str">
+      <c r="B107" s="62"/>
+      <c r="C107" s="20" t="str">
         <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="14" t="str">
+      <c r="D107" s="63"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G107" s="14" t="str">
+      <c r="G107" s="13" t="str">
         <f ca="1">IF($F107&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E107,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H107" s="14" t="str">
+      <c r="H107" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I107" s="14" t="str">
+      <c r="I107" s="13" t="str">
         <f ca="1">IF(OR($B107&lt;&gt;"",$J107&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E107,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E107,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J107" s="64"/>
-      <c r="K107" s="66"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1">
-      <c r="A108" s="13" t="str">
+      <c r="J107" s="63"/>
+      <c r="K107" s="65"/>
+    </row>
+    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="B108" s="63"/>
-      <c r="C108" s="21" t="str">
+      <c r="B108" s="62"/>
+      <c r="C108" s="20" t="str">
         <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="14" t="str">
+      <c r="D108" s="63"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="13" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G108" s="14" t="str">
+      <c r="G108" s="13" t="str">
         <f ca="1">IF($F108&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E108,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="H108" s="14" t="str">
+      <c r="H108" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
         <v/>
       </c>
-      <c r="I108" s="14" t="str">
+      <c r="I108" s="13" t="str">
         <f ca="1">IF(OR($B108&lt;&gt;"",$J108&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E108,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E108,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v/>
       </c>
-      <c r="J108" s="64"/>
-      <c r="K108" s="66"/>
+      <c r="J108" s="63"/>
+      <c r="K108" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nC4qJdP1QFdLUgRY+o161TDF82WU6nX8giPQJlofB5isIWibasVNUNE8563gQokTe4pqFeHReaNNbXTCgv2IMw==" saltValue="YRQxn3iUY7WfXLhfo5wxQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/+50cWqeCSWEledDPFd0nA3vfvIdWf8qCuc9E5jz1ifpoFfKfrmlYaeZuUOe98sPsPnq1YVmBuHJtaLN3jxF7A==" saltValue="G+Y/+FiHSh0OHuemOCgs8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -6091,7 +6195,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6102,548 +6206,548 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="72.1640625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="23"/>
-    <col min="3" max="3" width="13.83203125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="23" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="23"/>
-    <col min="8" max="11" width="11" style="23" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="72.1875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.8125" style="22"/>
+    <col min="3" max="3" width="13.8125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.3125" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.8125" style="22"/>
+    <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="90" t="s">
+    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="60">
-      <c r="A3" s="34" t="s">
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+      <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="23" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+      <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="H4" s="23" t="s">
+      <c r="F4" s="32"/>
+      <c r="H4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>1</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="76" thickBot="1">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="102" t="str">
+      <c r="D5" s="101" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="33"/>
-      <c r="H5" s="23" t="s">
+      <c r="E5" s="102"/>
+      <c r="F5" s="32"/>
+      <c r="H5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="22">
         <v>2</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31" thickBot="1">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="H6" s="23" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="H6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="22">
         <v>3</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="46" thickBot="1">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="88" t="str">
+      <c r="D7" s="87" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="88"/>
-      <c r="F7" s="89"/>
-      <c r="H7" s="23" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="22">
         <v>4</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="I8" s="23" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="I8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>5</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="I9" s="23" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="I9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="22">
         <v>6</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31" thickBot="1">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="I10" s="23" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="I10" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="22">
         <v>7</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="22">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="I11" s="23" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>8</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" thickBot="1">
-      <c r="I12" s="23" t="s">
+    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="22">
         <v>9</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="22">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="90" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A13" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
-      <c r="I13" s="23" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>10</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" thickBot="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="I14" s="23" t="s">
+    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="I14" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="22">
         <v>11</v>
       </c>
-      <c r="K14" s="23">
+      <c r="K14" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="93" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="95"/>
-      <c r="J15" s="23">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="J15" s="22">
         <v>12</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1">
-      <c r="A16" s="34" t="s">
+    <row r="16" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="27" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>13</v>
       </c>
-      <c r="K16" s="23">
+      <c r="K16" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:11" ht="32.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="96" t="str">
+      <c r="D17" s="95" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="97"/>
-      <c r="F17" s="98"/>
-      <c r="J17" s="23">
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="J17" s="22">
         <v>14</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="76" thickBot="1">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="88" t="str">
+      <c r="D18" s="87" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="J18" s="23">
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="J18" s="22">
         <v>15</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
-      <c r="H19" s="23">
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
+      <c r="H19" s="22">
         <v>3</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="22">
         <v>16</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="22">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="61" thickBot="1">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="H20" s="23">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="H20" s="22">
         <v>4</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <v>5</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="22">
         <v>4</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="22">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="H21" s="23" t="str">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="23" t="str">
+      <c r="I21" s="22" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="23" t="str">
+      <c r="J21" s="22" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="22">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="K22" s="23">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="K23" s="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="K24" s="23">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="K25" s="23">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="K26" s="23">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="K27" s="23">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="K28" s="23">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="K29" s="23">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="K30" s="23">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="K31" s="23">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="K32" s="23">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="23">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
-      <c r="K34" s="23">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="23">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
-      <c r="K36" s="23">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="23">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="23">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="23">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
-      <c r="K40" s="23">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
-      <c r="K41" s="23">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
-      <c r="K42" s="23">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
-      <c r="K43" s="23">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
-      <c r="K44" s="23">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
-      <c r="K45" s="23" t="str">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+      <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -6676,19 +6780,18 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1014936</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6697,21 +6800,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1016000</xdr:colOff>
+                    <xdr:colOff>1014936</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:colOff>837801</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6722,19 +6824,18 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:colOff>837801</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6745,19 +6846,18 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>482600</xdr:rowOff>
+                    <xdr:rowOff>483531</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>838200</xdr:colOff>
+                    <xdr:colOff>837801</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>711200</xdr:rowOff>
+                    <xdr:rowOff>713328</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6766,21 +6866,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>23937</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1041400</xdr:colOff>
+                    <xdr:colOff>1043661</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>229797</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6789,21 +6888,20 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1054100</xdr:colOff>
+                    <xdr:colOff>1053236</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>863600</xdr:colOff>
+                    <xdr:colOff>861738</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>229797</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6812,7 +6910,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>12700</xdr:colOff>
+                    <xdr:colOff>14362</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6820,17 +6918,15 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>228600</xdr:rowOff>
+                    <xdr:rowOff>229797</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
-          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
-    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6849,1051 +6945,1051 @@
       <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21" style="23" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="23" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="23" customWidth="1"/>
-    <col min="10" max="10" width="44.5" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="21" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.1875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.6875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.8125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.8125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.6875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.1875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
+    <col min="11" max="16384" width="10.8125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="105" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A1" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="44"/>
+      <c r="H15" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="49"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="105" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="104"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41" t="s">
+      <c r="E19" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="49"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="44"/>
+      <c r="H20" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="49"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="72"/>
+      <c r="J21" s="49"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="44"/>
+      <c r="H22" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="43" t="s">
+      <c r="I23" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="43" t="s">
+      <c r="E25" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="46"/>
+      <c r="H25" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="43" t="s">
+    </row>
+    <row r="27" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="46"/>
+      <c r="H27" s="42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" s="44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A40" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="50"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A41" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="52" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A5" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I6" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A8" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A9" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A10" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="43"/>
-    </row>
-    <row r="12" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="42" customFormat="1" ht="14.75" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A14" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A15" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A16" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="47" t="s">
+      <c r="D41" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A42" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="54"/>
+      <c r="C42" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A43" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+    </row>
+    <row r="44" spans="1:9" ht="31.7" x14ac:dyDescent="0.5">
+      <c r="A44" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A45" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="54"/>
+      <c r="C45" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+    </row>
+    <row r="46" spans="1:9" ht="47.5" x14ac:dyDescent="0.5">
+      <c r="A46" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="54"/>
+      <c r="C46" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="I16" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="J16" s="48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="J17" s="50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="50"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="50"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="50"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="45"/>
-      <c r="H21" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="50"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A22" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A23" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A24" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A25" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A26" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="H26" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A27" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="G27" s="47"/>
-      <c r="H27" s="43" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A28" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A29" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="G29" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I29" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A30" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-    </row>
-    <row r="31" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A31" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.75" customHeight="1">
-      <c r="A32" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A33" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A34" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A35" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="H35" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>184</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="I36" s="45" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A37" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="45"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.75" customHeight="1">
-      <c r="A38" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="D38" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="45"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="51"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-    </row>
-    <row r="44" spans="1:9" ht="30">
-      <c r="A44" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-    </row>
-    <row r="46" spans="1:9" ht="45">
-      <c r="A46" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="57" t="s">
+      <c r="D46" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="qWgTxtpLbRUvu5aroR2UqIhjRvI+W9eTnNtggnQN6cunxZc9eASg+7JPhibGu2Qmhok1RUSlRXeo4cauHXAeZg==" saltValue="j5ozy/tthsrY5igtMeBtrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>

--- a/fuentes/contenidos/grado10/guion04/SolicitudGrafica_CN_10_04.xlsx
+++ b/fuentes/contenidos/grado10/guion04/SolicitudGrafica_CN_10_04.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\psf\Home\Documents\Aula Planeta Colombia\Repositorios\CienciasNaturales\fuentes\contenidos\grado10\guion04\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25603" windowHeight="14377" tabRatio="500"/>
+    <workbookView xWindow="4160" yWindow="0" windowWidth="13140" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <definedName name="Formato">'Solicitud gráfica'!$L$2:$L$3</definedName>
     <definedName name="Ubicación">'Solicitud gráfica'!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="261">
   <si>
     <t>Fecha:</t>
   </si>
@@ -475,15 +470,9 @@
     <t>Octavo Educación Básica Secundaria</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Webquest</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>Diaporama</t>
   </si>
   <si>
@@ -592,164 +581,240 @@
     <t>850 x 400 px</t>
   </si>
   <si>
+    <t>Diaporama F1</t>
+  </si>
+  <si>
+    <t>317 x 232 px</t>
+  </si>
+  <si>
+    <t>Trabajar un video</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
     <t>Dinámica</t>
   </si>
   <si>
     <t>Sergio Cuellar Ardila</t>
   </si>
   <si>
+    <t>CN_10_04_CO</t>
+  </si>
+  <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
     <t>4ESO/Física y química/La dinámica/1.¿Qué es la dinámica?</t>
   </si>
   <si>
+    <t>Fuerza aplicada sobre carrito de mercado</t>
+  </si>
+  <si>
+    <t>4ESO/Física y química/La Fuerza/1.¿Qué son las fuerzas?</t>
+  </si>
+  <si>
+    <t>4ESO/Física y química/La Fuerza/2. Sistemas de fuerzas/2.1 Los sistemas de fuerzas colineales</t>
+  </si>
+  <si>
+    <t>4ESO/Física y química/La Fuerza/2.2 Los Sistemas de fuerzas concurrentes</t>
+  </si>
+  <si>
+    <t>Imagen de autor</t>
+  </si>
+  <si>
+    <t>https://openclipart.org/image/300px/svg_to_png/182270/Force%20-%20Free%20Body%20Diagram.png</t>
+  </si>
+  <si>
+    <t>4°Eso/Física y Química/ La dinámica/4. La fuerza de fricción o rozamiento</t>
+  </si>
+  <si>
+    <t>4°Eso/Física y Química/ La dinámica/6. Las fuerzas que actúan sobre un cuerpo apoyado en una superficie horizontal</t>
+  </si>
+  <si>
+    <t>4°Eso/Física y Química/ La dinámica/6.1 Las fuerzas que actúan sobre un cuerpo apoyado sobre un plano inclinado</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/d/d1/GPB_circling_earth.jpg</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Big_Bang#/media/File:Universe_expansion2.png</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/2/2d/Mog_peso.jpg</t>
+  </si>
+  <si>
+    <t>4°ESO/Física y química/La dinámica/7. Las fuerzas en una polea</t>
+  </si>
+  <si>
+    <t>Fuerza de los libros apoyados sobre la mesa</t>
+  </si>
+  <si>
+    <t>Características de la fuerza</t>
+  </si>
+  <si>
+    <t>Fuerzas colineales</t>
+  </si>
+  <si>
+    <t>Suma de fuerzas colineales</t>
+  </si>
+  <si>
+    <t>Resta de fuerzas colineales</t>
+  </si>
+  <si>
+    <t>Fuerzas concurrentes</t>
+  </si>
+  <si>
+    <t>Suma de vectores: Método del polígono</t>
+  </si>
+  <si>
+    <t>Suma de vectores: Método del paralelogramo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ley de gravitación universal </t>
+  </si>
+  <si>
+    <t>Ley de gravitación universal y peso</t>
+  </si>
+  <si>
+    <t>Concepto de Gravedad por Albert Einstein</t>
+  </si>
+  <si>
+    <t>Modelo de la expansión del universo</t>
+  </si>
+  <si>
+    <t>Diagrama de fuerzas sobre un objeto apoyado en una superficie horizontal</t>
+  </si>
+  <si>
+    <t>Diagrama de cuerpo libre para un objeto sobre una superficie horizontal</t>
+  </si>
+  <si>
+    <t>Fuerzas en un plano inclinado</t>
+  </si>
+  <si>
+    <t>Tomar sólo la segunda imagen y traducir: Fuerza de fricción en lugar de Friction force – fricción en lugar de friction</t>
+  </si>
+  <si>
+    <t>Fricción entre las llantas de una bicicleta y el pavimento</t>
+  </si>
+  <si>
+    <t>Fricción a escala microscópica</t>
+  </si>
+  <si>
+    <t>Fuerza normal sobre un libro apoyado en una mesa</t>
+  </si>
+  <si>
+    <t>Fuerzas que actuan sobre un plano inclinado</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/3/39/GodfreyKneller-IsaacNewton-1689.jpg</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/0/0e/Parallel_net_force01.jpg</t>
+  </si>
+  <si>
+    <t>http://www.texample.net/media/tikz/examples/PNG/free-body-diagrams.png</t>
+  </si>
+  <si>
+    <t>Isaac Newton</t>
+  </si>
+  <si>
+    <t>Fuerzas en equilibrio: Primera Ley de Newton</t>
+  </si>
+  <si>
+    <t>Desequilibrio de fuerzas: Segunda Ley de Newton</t>
+  </si>
+  <si>
+    <t>Imagen adaptada: cambiar la letra P por la letra W, conservando los subíndices. También se debe alargar la flecha que al lado del Wx. Revisar muestra con cambios,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máquina de Atwood </t>
+  </si>
+  <si>
     <t>Ilustración</t>
   </si>
   <si>
-    <t>Fotografía</t>
-  </si>
-  <si>
-    <t>Fuerza aplicada sobre carrito de mercado</t>
-  </si>
-  <si>
-    <t>Fuerza de los libros apoyados sobre la mesa</t>
-  </si>
-  <si>
-    <t>4ESO/Física y química/La Fuerza/1.¿Qué son las fuerzas?</t>
-  </si>
-  <si>
-    <t>Características de la fuerza</t>
-  </si>
-  <si>
-    <t>4ESO/Física y química/La Fuerza/2. Sistemas de fuerzas/2.1 Los sistemas de fuerzas colineales</t>
-  </si>
-  <si>
-    <t>Fuerzas colineales</t>
-  </si>
-  <si>
-    <t>Suma de fuerzas colineales</t>
-  </si>
-  <si>
-    <t>Resta de fuerzas colineales</t>
-  </si>
-  <si>
-    <t>4ESO/Física y química/La Fuerza/2.2 Los Sistemas de fuerzas concurrentes</t>
-  </si>
-  <si>
-    <t>Fuerzas concurrentes</t>
-  </si>
-  <si>
-    <t>Suma de vectores: Método del polígono</t>
-  </si>
-  <si>
-    <t>Suma de vectores: Método del paralelogramo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ley de gravitación universal </t>
-  </si>
-  <si>
-    <t>Imagen de autor</t>
-  </si>
-  <si>
-    <t>Ley de gravitación universal y peso</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/d/d1/GPB_circling_earth.jpg</t>
-  </si>
-  <si>
-    <t>Concepto de Gravedad por Albert Einstein</t>
-  </si>
-  <si>
-    <t>http://en.wikipedia.org/wiki/Big_Bang#/media/File:Universe_expansion2.png</t>
-  </si>
-  <si>
-    <t>Modelo de la expansión del universo</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/2/2d/Mog_peso.jpg</t>
-  </si>
-  <si>
-    <t>Diagrama de fuerzas sobre un objeto apoyado en una superficie horizontal</t>
-  </si>
-  <si>
-    <t>Diagrama de cuerpo libre para un objeto sobre una superficie horizontal</t>
-  </si>
-  <si>
-    <t>https://openclipart.org/image/300px/svg_to_png/182270/Force%20-%20Free%20Body%20Diagram.png</t>
-  </si>
-  <si>
-    <t>Fuerzas en un plano inclinado</t>
-  </si>
-  <si>
-    <t>Tomar sólo la segunda imagen y traducir: Fuerza de fricción en lugar de Friction force – fricción en lugar de friction</t>
-  </si>
-  <si>
-    <t>4°Eso/Física y Química/ La dinámica/4. La fuerza de fricción o rozamiento</t>
-  </si>
-  <si>
-    <t>Fricción entre las llantas de una bicicleta y el pavimento</t>
-  </si>
-  <si>
-    <t>Fricción a escala microscópica</t>
-  </si>
-  <si>
-    <t>4°Eso/Física y Química/ La dinámica/6. Las fuerzas que actúan sobre un cuerpo apoyado en una superficie horizontal</t>
-  </si>
-  <si>
-    <t>Fuerza normal sobre un libro apoyado en una mesa</t>
-  </si>
-  <si>
-    <t>4°Eso/Física y Química/ La dinámica/6.1 Las fuerzas que actúan sobre un cuerpo apoyado sobre un plano inclinado</t>
-  </si>
-  <si>
-    <t>Cambiar la letra P por la letra W, conservando los subíndices. También se debe alargar la flecha que al lado del Wx. Así se sugiere la imagen</t>
-  </si>
-  <si>
-    <t>4°ESO/Física y química/La dinámica/7. Las fuerzas en una polea</t>
-  </si>
-  <si>
-    <t>Máquina de Atwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar la letra P por W conservando los subíndices 1 y 2. </t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/3/39/GodfreyKneller-IsaacNewton-1689.jpg</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/0/0e/Parallel_net_force01.jpg</t>
-  </si>
-  <si>
-    <t>Fuerza Neta</t>
-  </si>
-  <si>
-    <t>Adaptación de autor, revisar muestra</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/45/Non-parallel_net_force01.jpg</t>
-  </si>
-  <si>
-    <t>Fuerza neta por suma vectorial</t>
-  </si>
-  <si>
-    <t>http://www.texample.net/media/tikz/examples/PNG/free-body-diagrams.png</t>
-  </si>
-  <si>
-    <t>Fuerzas en equilibrio: Primera Ley de Newton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen adaptada:
-Agregar y modificar las letras que se indican 
+    <t>Cambiar la letra P por W conservando los subíndices 1 y 2.</t>
+  </si>
+  <si>
+    <t>Imagen con adaptación del autor, revisar muestra</t>
+  </si>
+  <si>
+    <t>Fuerza neta obtenida gráficamente 1</t>
+  </si>
+  <si>
+    <t>Fuerza neta obtenida gráficamente 2</t>
+  </si>
+  <si>
+    <t>Cambios como en el anterior, revisar muestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagen adaptada: Agregar y modificar las letras que se indican 
 Los vectores (flechas) N y Wy deben quedar de la misma longitud.
-Los vectores (flechas) T y Wx deben quedar de la misma longitud.
+Los vectores (flechas) T y Wx deben quedar de la misma longitud. Revisar muestra
 </t>
   </si>
   <si>
-    <t>CN_10_04_CO</t>
+    <t>Tercera ley de Newton: Ley de acción-reacción</t>
+  </si>
+  <si>
+    <t>4° ESO/Física y Química/La dinámica/2. Las leyes de Newton/2.3 La tercera ley de Newton o ley de acción y reacción</t>
+  </si>
+  <si>
+    <t>Funcionamiento de un cohete: Tercera ley de Newton</t>
+  </si>
+  <si>
+    <t>Aceleración centrípeta</t>
+  </si>
+  <si>
+    <t>4° ESO/ Física y química/La dinámica/5. La fuerza centrípeta</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/f/ff/Breaking_String.PNG</t>
+  </si>
+  <si>
+    <t>Fuerza centrípeta en ruptura de cuerda en movimiento circular</t>
+  </si>
+  <si>
+    <t>Cambiar las palabras de inglés a español:
+Velocity por velocidad
+Centripetal forcé por Fuerza centrípeta</t>
+  </si>
+  <si>
+    <t>Fuerza centrípeta en pista circular</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/40/US_Navy_040501-N-1336S-037_The_U.S._Navy_sponsored_Chevy_Monte_Carlo_NASCAR_leads_a_pack_into_turn_four_at_California_Speedway.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par de fuerzas </t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/48/Par_de_fuerzas.jpg</t>
+  </si>
+  <si>
+    <t>Producto vectorial o producto cruz</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/4/4e/Cross_product_parallelogram.svg</t>
+  </si>
+  <si>
+    <t>Torque: Principio de la balanza</t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/c/c3/Lever_Principle_3D.png</t>
+  </si>
+  <si>
+    <t>quitar la ecuación  y poner la letra O. Revisar muestra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palancas y su clasificación </t>
+  </si>
+  <si>
+    <t>4°ESO/Física y química/La fuerza/3. Fuerzas en equilibrio/ 3.1 El equilibrio en máquinas simples: la palanca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcionamiento palanca de primer género  </t>
   </si>
 </sst>
 </file>
@@ -759,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -906,6 +971,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1401,7 +1480,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1457,8 +1536,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1652,10 +1777,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1667,6 +1788,19 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1766,12 +1900,12 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="101">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1799,6 +1933,29 @@
     <cellStyle name="Hipervínculo" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -1826,6 +1983,29 @@
     <cellStyle name="Hipervínculo visitado" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1880,7 +2060,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1902,15 +2082,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>23937</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1043661</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>229797</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1923,7 +2103,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1931,20 +2111,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1957,15 +2123,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1053236</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>861738</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>229797</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1978,7 +2144,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1986,20 +2152,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2012,7 +2164,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>14362</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -2020,7 +2172,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>229797</xdr:rowOff>
+          <xdr:rowOff>228600</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2033,7 +2185,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2041,20 +2193,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2069,13 +2207,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2088,7 +2226,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2096,20 +2234,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2122,15 +2246,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1014936</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2143,7 +2267,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2151,20 +2275,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2179,13 +2289,13 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2198,7 +2308,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2206,20 +2316,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2234,13 +2330,13 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>483531</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>837801</xdr:colOff>
+          <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>713328</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2253,7 +2349,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2261,20 +2357,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2607,34 +2689,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D2"/>
+      <pane ySplit="9" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="13.2" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="50.3125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.1875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="68" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.1875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.1875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.6875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="41.8125" style="15" customWidth="1"/>
-    <col min="11" max="11" width="29.6875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="20.3125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="46.33203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="15" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16384" width="10.8125" style="2"/>
+    <col min="14" max="15" width="10.83203125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="16" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2650,78 +2732,86 @@
       </c>
       <c r="M1" s="2" t="str">
         <f>CONCATENATE('Definición técnica de imagenes'!$B$1," ",$G$5)</f>
-        <v xml:space="preserve">Ubicación de la imagen en el recurso </v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+        <v>Ubicación de la imagen en el recurso F7B</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="F2" s="74" t="s">
+      <c r="D2" s="85"/>
+      <c r="F2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
       <c r="L2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M2" s="2" t="str">
         <f ca="1">IF($N2&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N2,1,1,1),"")</f>
-        <v/>
+        <v>Inicio (apaisado)</v>
       </c>
       <c r="N2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="O2" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A3</f>
+        <v>M3A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="86">
         <v>10</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="F3" s="76">
+      <c r="D3" s="87"/>
+      <c r="F3" s="79">
         <v>42144</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
       <c r="L3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M3" s="2" t="str">
         <f ca="1">IF($N3&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N3,1,1,1),"")</f>
-        <v/>
+        <v>Inicio (cuadrado)</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="O3" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A4</f>
+        <v>M5A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4" s="84"/>
+      <c r="C4" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="87"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H4" s="58"/>
       <c r="I4" s="38"/>
@@ -2729,27 +2819,33 @@
       <c r="K4" s="14"/>
       <c r="M4" s="2" t="str">
         <f ca="1">IF($N4&lt;COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1+$N4,1,1,1),"")</f>
-        <v/>
+        <v>Contenido</v>
       </c>
       <c r="N4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O4" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A5</f>
+        <v>M6A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="85" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="86"/>
+      <c r="C5" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="89"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="61"/>
+      <c r="G5" s="61" t="s">
+        <v>138</v>
+      </c>
       <c r="H5" s="58"/>
       <c r="I5" s="58"/>
       <c r="J5" s="14"/>
@@ -2761,8 +2857,12 @@
       <c r="N5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A6</f>
+        <v>M7A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2781,14 +2881,18 @@
       <c r="N6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.85" x14ac:dyDescent="0.5">
+      <c r="O6" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A8</f>
+        <v>M8A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="105" t="s">
-        <v>237</v>
+      <c r="C7" s="73" t="s">
+        <v>190</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>39</v>
@@ -2806,19 +2910,23 @@
       <c r="N7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="8" customFormat="1" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O7" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A9</f>
+        <v>M9B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="8" customFormat="1" ht="16" thickBot="1">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2828,10 +2936,13 @@
       <c r="N8" s="2">
         <v>6</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A10</f>
+        <v>M9C</v>
+      </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="38.75" customHeight="1" thickBot="1">
       <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
@@ -2866,24 +2977,28 @@
       <c r="K9" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A11</f>
+        <v>M10B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="11" customFormat="1">
       <c r="A10" s="12" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C10" s="20" t="str">
         <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F10" s="13" t="str">
         <f t="shared" ref="F10" si="1">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2902,11 +3017,15 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K10" s="64"/>
-    </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O10" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A12</f>
+        <v>M12D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="11" customFormat="1">
       <c r="A11" s="12" t="str">
         <f t="shared" ref="A11:A18" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
         <v>IMG02</v>
@@ -2919,10 +3038,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" s="13" t="str">
         <f t="shared" ref="F11:F74" si="4">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
@@ -2941,11 +3060,15 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="64" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O11" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A13</f>
+        <v>M101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="11" customFormat="1">
       <c r="A12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG03</v>
@@ -2958,10 +3081,10 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" s="13" t="str">
         <f t="shared" si="4"/>
@@ -2980,27 +3103,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="K12" s="64"/>
-    </row>
-    <row r="13" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O12" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A18</f>
+        <v>Diaporama F1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="11" customFormat="1" ht="26">
       <c r="A13" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG04</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F13" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3019,27 +3146,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K13" s="64"/>
-    </row>
-    <row r="14" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O13" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A19</f>
+        <v>F4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="11" customFormat="1" ht="26">
       <c r="A14" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG05</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3058,27 +3189,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="K14" s="64"/>
-    </row>
-    <row r="15" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O14" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A22</f>
+        <v>F6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="11" customFormat="1" ht="26">
       <c r="A15" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG06</v>
       </c>
       <c r="B15" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F15" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3097,27 +3232,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="K15" s="66"/>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O15" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A24</f>
+        <v>F6B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="11" customFormat="1">
       <c r="A16" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG07</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E16" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F16" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3136,27 +3275,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="K16" s="68"/>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O16" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A25</f>
+        <v>F7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="11" customFormat="1">
       <c r="A17" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG08</v>
       </c>
       <c r="B17" s="62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C17" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F17" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3175,27 +3318,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="K17" s="66"/>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O17" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A27</f>
+        <v>F7B</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="11" customFormat="1">
       <c r="A18" s="12" t="str">
         <f t="shared" si="3"/>
         <v>IMG09</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3214,27 +3361,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K18" s="66"/>
-    </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O18" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A30</f>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="11" customFormat="1">
       <c r="A19" s="12" t="str">
         <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3253,27 +3404,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="K19" s="68"/>
-    </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O19" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A31</f>
+        <v>F10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="11" customFormat="1">
       <c r="A20" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3292,27 +3447,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K20" s="66"/>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O20" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A32</f>
+        <v>F10B</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="11" customFormat="1">
       <c r="A21" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F21" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3331,27 +3490,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="66" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="K21" s="66"/>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O21" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A33</f>
+        <v>F11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="11" customFormat="1">
       <c r="A22" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG13</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E22" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F22" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3370,27 +3533,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22" s="63" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="69"/>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="K22" s="108"/>
+      <c r="O22" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A34</f>
+        <v>F12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A23" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG14</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E23" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F23" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3409,27 +3576,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="64" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="K23" s="64"/>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="O23" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A35</f>
+        <v>F13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A24" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG15</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E24" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F24" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3448,27 +3619,31 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24" s="63" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K24" s="65"/>
-    </row>
-    <row r="25" spans="1:11" s="11" customFormat="1" ht="52.8" x14ac:dyDescent="0.35">
+      <c r="O24" s="2" t="str">
+        <f>'Definición técnica de imagenes'!A37</f>
+        <v>F13B</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="52">
       <c r="A25" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG16</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E25" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F25" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3487,29 +3662,29 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A26" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG17</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E26" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3528,27 +3703,27 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K26" s="64"/>
     </row>
-    <row r="27" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="11" customFormat="1">
       <c r="A27" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG18</v>
       </c>
       <c r="B27" s="62" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E27" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F27" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3567,27 +3742,28 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J27" s="64" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K27" s="64"/>
-    </row>
-    <row r="28" spans="1:11" s="11" customFormat="1" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A28" s="12" t="str">
         <f t="shared" si="6"/>
         <v>IMG19</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E28" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" s="13" t="str">
         <f t="shared" si="4"/>
@@ -3606,30 +3782,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J28" s="64" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="66" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="65">
       <c r="A29" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(LEFT(A28,3),IF(MID(A28,4,2)+1&lt;10,CONCATENATE("0",MID(A28,4,2)+1),MID(A28,4,2)+1)),"")</f>
         <v>IMG20</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E29" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F29" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE($C$7,"_",$A29,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I29="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG20_small</v>
       </c>
       <c r="G29" s="13" t="str">
@@ -3637,7 +3813,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H29" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I29&lt;&gt;"",I29&lt;&gt;0),IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE($C$7,"_",$A29,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG20_zoom</v>
       </c>
       <c r="I29" s="13" t="str">
@@ -3645,32 +3821,32 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J29" s="64" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K29" s="64" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A30" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(LEFT(A29,3),IF(MID(A29,4,2)+1&lt;10,CONCATENATE("0",MID(A29,4,2)+1),MID(A29,4,2)+1)),"")</f>
         <v>IMG21</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E30" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F30" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE($C$7,"_",$A30,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I30="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG21_small</v>
       </c>
       <c r="G30" s="13" t="str">
@@ -3678,7 +3854,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H30" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I30&lt;&gt;"",I30&lt;&gt;0),IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE($C$7,"_",$A30,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG21_zoom</v>
       </c>
       <c r="I30" s="13" t="str">
@@ -3686,32 +3862,32 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J30" s="64" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="K30" s="64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="26">
+      <c r="A31" s="12" t="str">
+        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE(LEFT(A30,3),IF(MID(A30,4,2)+1&lt;10,CONCATENATE("0",MID(A30,4,2)+1),MID(A30,4,2)+1)),"")</f>
+        <v>IMG22</v>
+      </c>
+      <c r="B31" s="62" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG22</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>227</v>
-      </c>
       <c r="C31" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D31" s="63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E31" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F31" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE($C$7,"_",$A31,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I31="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG22_small</v>
       </c>
       <c r="G31" s="13" t="str">
@@ -3719,7 +3895,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H31" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I31&lt;&gt;"",I31&lt;&gt;0),IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE($C$7,"_",$A31,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG22_zoom</v>
       </c>
       <c r="I31" s="13" t="str">
@@ -3727,30 +3903,30 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J31" s="64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K31" s="64"/>
     </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A32" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE(LEFT(A31,3),IF(MID(A31,4,2)+1&lt;10,CONCATENATE("0",MID(A31,4,2)+1),MID(A31,4,2)+1)),"")</f>
         <v>IMG23</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C32" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E32" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F32" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE($C$7,"_",$A32,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I32="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG23_small</v>
       </c>
       <c r="G32" s="13" t="str">
@@ -3758,7 +3934,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H32" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I32&lt;&gt;"",I32&lt;&gt;0),IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE($C$7,"_",$A32,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG23_zoom</v>
       </c>
       <c r="I32" s="13" t="str">
@@ -3766,32 +3942,32 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J32" s="64" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K32" s="64" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A33" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE(LEFT(A32,3),IF(MID(A32,4,2)+1&lt;10,CONCATENATE("0",MID(A32,4,2)+1),MID(A32,4,2)+1)),"")</f>
         <v>IMG24</v>
       </c>
       <c r="B33" s="62" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D33" s="63" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E33" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F33" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I33="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG24_small</v>
       </c>
       <c r="G33" s="13" t="str">
@@ -3799,7 +3975,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H33" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I33&lt;&gt;"",I33&lt;&gt;0),IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG24_zoom</v>
       </c>
       <c r="I33" s="13" t="str">
@@ -3807,32 +3983,32 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J33" s="64" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K33" s="64" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="11" customFormat="1" ht="131.94999999999999" x14ac:dyDescent="0.35">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="117">
       <c r="A34" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE(LEFT(A33,3),IF(MID(A33,4,2)+1&lt;10,CONCATENATE("0",MID(A33,4,2)+1),MID(A33,4,2)+1)),"")</f>
         <v>IMG25</v>
       </c>
       <c r="B34" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="20" t="str">
+        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D34" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>190</v>
-      </c>
       <c r="E34" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F34" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE($C$7,"_",$A34,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I34="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG25_small</v>
       </c>
       <c r="G34" s="13" t="str">
@@ -3840,7 +4016,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H34" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I34&lt;&gt;"",I34&lt;&gt;0),IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE($C$7,"_",$A34,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG25_zoom</v>
       </c>
       <c r="I34" s="13" t="str">
@@ -3848,32 +4024,33 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J34" s="64" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K34" s="64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="11" customFormat="1" ht="26.4" x14ac:dyDescent="0.35">
+        <v>240</v>
+      </c>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A35" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE(LEFT(A34,3),IF(MID(A34,4,2)+1&lt;10,CONCATENATE("0",MID(A34,4,2)+1),MID(A34,4,2)+1)),"")</f>
         <v>IMG26</v>
       </c>
       <c r="B35" s="62" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D35" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C35" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>190</v>
-      </c>
       <c r="E35" s="63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I35="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG26_small</v>
       </c>
       <c r="G35" s="13" t="str">
@@ -3881,327 +4058,417 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H35" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I35&lt;&gt;"",I35&lt;&gt;0),IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG26_zoom</v>
       </c>
       <c r="I35" s="13" t="str">
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="63"/>
-      <c r="K35" s="65"/>
-    </row>
-    <row r="36" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A36" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B36" s="62"/>
+        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE(LEFT(A35,3),IF(MID(A35,4,2)+1&lt;10,CONCATENATE("0",MID(A35,4,2)+1),MID(A35,4,2)+1)),"")</f>
+        <v>IMG27</v>
+      </c>
+      <c r="B36" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="C36" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
+        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D36" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E36" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F36" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE($C$7,"_",$A36,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I36="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_04_CO_IMG27_small</v>
       </c>
       <c r="G36" s="13" t="str">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H36" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
+        <f ca="1">IF(AND(I36&lt;&gt;"",I36&lt;&gt;0),IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE($C$7,"_",$A36,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CN_10_04_CO_IMG27_zoom</v>
       </c>
       <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J36" s="63"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>241</v>
+      </c>
       <c r="K36" s="65"/>
-    </row>
-    <row r="37" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A37" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B37" s="62"/>
+        <v>IMG28</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="C37" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F37" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG28_small</v>
       </c>
       <c r="G37" s="13" t="str">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H37" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG28_zoom</v>
       </c>
       <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J37" s="70"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J37" s="69" t="s">
+        <v>243</v>
+      </c>
       <c r="K37" s="65"/>
     </row>
-    <row r="38" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" s="11" customFormat="1">
       <c r="A38" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B38" s="62"/>
+        <v>IMG29</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>245</v>
+      </c>
       <c r="C38" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F38" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG29_small</v>
       </c>
       <c r="G38" s="13" t="str">
         <f ca="1">IF($F38&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H38" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG29_zoom</v>
       </c>
       <c r="I38" s="13" t="str">
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J38" s="71"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>244</v>
+      </c>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="65">
       <c r="A39" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B39" s="62"/>
+        <v>IMG30</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>246</v>
+      </c>
       <c r="C39" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F39" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG30_small</v>
       </c>
       <c r="G39" s="13" t="str">
         <f ca="1">IF($F39&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H39" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG30_zoom</v>
       </c>
       <c r="I39" s="13" t="str">
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J39" s="63"/>
-      <c r="K39" s="65"/>
-    </row>
-    <row r="40" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J39" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="39">
       <c r="A40" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B40" s="62"/>
+        <v>IMG31</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>250</v>
+      </c>
       <c r="C40" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D40" s="63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F40" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG31_small</v>
       </c>
       <c r="G40" s="13" t="str">
         <f ca="1">IF($F40&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H40" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG31_zoom</v>
       </c>
       <c r="I40" s="13" t="str">
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J40" s="63"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J40" s="63" t="s">
+        <v>249</v>
+      </c>
       <c r="K40" s="65"/>
     </row>
-    <row r="41" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" s="11" customFormat="1">
       <c r="A41" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B41" s="62"/>
+        <v>IMG32</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>252</v>
+      </c>
       <c r="C41" s="20" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D41" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F41" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG32_small</v>
       </c>
       <c r="G41" s="13" t="str">
         <f ca="1">IF($F41&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H41" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG32_zoom</v>
       </c>
       <c r="I41" s="13" t="str">
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J41" s="63"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>251</v>
+      </c>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A42" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B42" s="62"/>
+        <v>IMG33</v>
+      </c>
+      <c r="B42" s="62" t="s">
+        <v>254</v>
+      </c>
       <c r="C42" s="20" t="str">
         <f t="shared" ref="C42:C73" si="7">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D42" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F42" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG33_small</v>
       </c>
       <c r="G42" s="13" t="str">
         <f ca="1">IF($F42&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H42" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG33_zoom</v>
       </c>
       <c r="I42" s="13" t="str">
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J42" s="63"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J42" s="63" t="s">
+        <v>253</v>
+      </c>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A43" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B43" s="62"/>
+        <v>IMG34</v>
+      </c>
+      <c r="B43" s="62" t="s">
+        <v>256</v>
+      </c>
       <c r="C43" s="20" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D43" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F43" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG34_small</v>
       </c>
       <c r="G43" s="13" t="str">
         <f ca="1">IF($F43&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H43" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG34_zoom</v>
       </c>
       <c r="I43" s="13" t="str">
         <f ca="1">IF(OR($B43&lt;&gt;"",$J43&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J43" s="63"/>
-      <c r="K43" s="65"/>
-    </row>
-    <row r="44" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J43" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="K43" s="65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A44" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B44" s="62"/>
+        <v>IMG35</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>259</v>
+      </c>
       <c r="C44" s="20" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D44" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F44" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG35_small</v>
       </c>
       <c r="G44" s="13" t="str">
         <f ca="1">IF($F44&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H44" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG35_zoom</v>
       </c>
       <c r="I44" s="13" t="str">
         <f ca="1">IF(OR($B44&lt;&gt;"",$J44&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J44" s="63"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J44" s="63" t="s">
+        <v>258</v>
+      </c>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A45" s="12" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="B45" s="62"/>
+        <v>IMG36</v>
+      </c>
+      <c r="B45" s="62" t="s">
+        <v>259</v>
+      </c>
       <c r="C45" s="20" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>153</v>
+      </c>
       <c r="F45" s="13" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>CN_10_04_CO_IMG36_small</v>
       </c>
       <c r="G45" s="13" t="str">
         <f ca="1">IF($F45&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H45" s="13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>CN_10_04_CO_IMG36_zoom</v>
       </c>
       <c r="I45" s="13" t="str">
         <f ca="1">IF(OR($B45&lt;&gt;"",$J45&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v/>
-      </c>
-      <c r="J45" s="63"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J45" s="63" t="s">
+        <v>260</v>
+      </c>
       <c r="K45" s="65"/>
     </row>
-    <row r="46" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" s="11" customFormat="1">
       <c r="A46" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4232,7 +4499,7 @@
       <c r="J46" s="63"/>
       <c r="K46" s="65"/>
     </row>
-    <row r="47" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" s="11" customFormat="1">
       <c r="A47" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4263,7 +4530,7 @@
       <c r="J47" s="63"/>
       <c r="K47" s="65"/>
     </row>
-    <row r="48" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" s="11" customFormat="1">
       <c r="A48" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4294,7 +4561,7 @@
       <c r="J48" s="63"/>
       <c r="K48" s="65"/>
     </row>
-    <row r="49" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" s="11" customFormat="1">
       <c r="A49" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4325,7 +4592,7 @@
       <c r="J49" s="63"/>
       <c r="K49" s="65"/>
     </row>
-    <row r="50" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" s="11" customFormat="1">
       <c r="A50" s="12" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4356,7 +4623,7 @@
       <c r="J50" s="63"/>
       <c r="K50" s="65"/>
     </row>
-    <row r="51" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" s="11" customFormat="1">
       <c r="A51" s="12" t="str">
         <f t="shared" ref="A51:A82" si="8">IF(OR(B51&lt;&gt;"",J51&lt;&gt;""),CONCATENATE(LEFT(A50,3),IF(MID(A50,4,2)+1&lt;10,CONCATENATE("0",MID(A50,4,2)+1),MID(A50,4,2)+1)),"")</f>
         <v/>
@@ -4387,7 +4654,7 @@
       <c r="J51" s="63"/>
       <c r="K51" s="65"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" s="11" customFormat="1">
       <c r="A52" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4418,7 +4685,7 @@
       <c r="J52" s="63"/>
       <c r="K52" s="65"/>
     </row>
-    <row r="53" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" s="11" customFormat="1">
       <c r="A53" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4449,7 +4716,7 @@
       <c r="J53" s="63"/>
       <c r="K53" s="65"/>
     </row>
-    <row r="54" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" s="11" customFormat="1">
       <c r="A54" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4480,7 +4747,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="65"/>
     </row>
-    <row r="55" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" s="11" customFormat="1">
       <c r="A55" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4511,7 +4778,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="65"/>
     </row>
-    <row r="56" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" s="11" customFormat="1">
       <c r="A56" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4542,7 +4809,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="65"/>
     </row>
-    <row r="57" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" s="11" customFormat="1">
       <c r="A57" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4573,7 +4840,7 @@
       <c r="J57" s="63"/>
       <c r="K57" s="65"/>
     </row>
-    <row r="58" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" s="11" customFormat="1">
       <c r="A58" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4604,7 +4871,7 @@
       <c r="J58" s="63"/>
       <c r="K58" s="65"/>
     </row>
-    <row r="59" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" s="11" customFormat="1">
       <c r="A59" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4635,7 +4902,7 @@
       <c r="J59" s="63"/>
       <c r="K59" s="65"/>
     </row>
-    <row r="60" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" s="11" customFormat="1">
       <c r="A60" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4666,7 +4933,7 @@
       <c r="J60" s="63"/>
       <c r="K60" s="65"/>
     </row>
-    <row r="61" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" s="11" customFormat="1">
       <c r="A61" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4697,7 +4964,7 @@
       <c r="J61" s="63"/>
       <c r="K61" s="65"/>
     </row>
-    <row r="62" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" s="11" customFormat="1">
       <c r="A62" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4728,7 +4995,7 @@
       <c r="J62" s="63"/>
       <c r="K62" s="65"/>
     </row>
-    <row r="63" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" s="11" customFormat="1">
       <c r="A63" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4759,7 +5026,7 @@
       <c r="J63" s="63"/>
       <c r="K63" s="65"/>
     </row>
-    <row r="64" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" s="11" customFormat="1">
       <c r="A64" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4790,7 +5057,7 @@
       <c r="J64" s="63"/>
       <c r="K64" s="65"/>
     </row>
-    <row r="65" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" s="11" customFormat="1">
       <c r="A65" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4821,7 +5088,7 @@
       <c r="J65" s="63"/>
       <c r="K65" s="65"/>
     </row>
-    <row r="66" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" s="11" customFormat="1">
       <c r="A66" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4852,7 +5119,7 @@
       <c r="J66" s="63"/>
       <c r="K66" s="65"/>
     </row>
-    <row r="67" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" s="11" customFormat="1">
       <c r="A67" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4883,7 +5150,7 @@
       <c r="J67" s="63"/>
       <c r="K67" s="65"/>
     </row>
-    <row r="68" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" s="11" customFormat="1">
       <c r="A68" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4914,7 +5181,7 @@
       <c r="J68" s="63"/>
       <c r="K68" s="65"/>
     </row>
-    <row r="69" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" s="11" customFormat="1">
       <c r="A69" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4945,7 +5212,7 @@
       <c r="J69" s="63"/>
       <c r="K69" s="65"/>
     </row>
-    <row r="70" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" s="11" customFormat="1">
       <c r="A70" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4976,7 +5243,7 @@
       <c r="J70" s="63"/>
       <c r="K70" s="65"/>
     </row>
-    <row r="71" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" s="11" customFormat="1">
       <c r="A71" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5007,7 +5274,7 @@
       <c r="J71" s="63"/>
       <c r="K71" s="65"/>
     </row>
-    <row r="72" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" s="11" customFormat="1">
       <c r="A72" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5038,7 +5305,7 @@
       <c r="J72" s="63"/>
       <c r="K72" s="65"/>
     </row>
-    <row r="73" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" s="11" customFormat="1">
       <c r="A73" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5069,7 +5336,7 @@
       <c r="J73" s="63"/>
       <c r="K73" s="65"/>
     </row>
-    <row r="74" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" s="11" customFormat="1">
       <c r="A74" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5100,7 +5367,7 @@
       <c r="J74" s="63"/>
       <c r="K74" s="65"/>
     </row>
-    <row r="75" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" s="11" customFormat="1">
       <c r="A75" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5131,7 +5398,7 @@
       <c r="J75" s="63"/>
       <c r="K75" s="65"/>
     </row>
-    <row r="76" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" s="11" customFormat="1">
       <c r="A76" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5162,7 +5429,7 @@
       <c r="J76" s="63"/>
       <c r="K76" s="65"/>
     </row>
-    <row r="77" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" s="11" customFormat="1">
       <c r="A77" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5193,7 +5460,7 @@
       <c r="J77" s="63"/>
       <c r="K77" s="65"/>
     </row>
-    <row r="78" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" s="11" customFormat="1">
       <c r="A78" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5224,7 +5491,7 @@
       <c r="J78" s="63"/>
       <c r="K78" s="65"/>
     </row>
-    <row r="79" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" s="11" customFormat="1">
       <c r="A79" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5255,7 +5522,7 @@
       <c r="J79" s="63"/>
       <c r="K79" s="65"/>
     </row>
-    <row r="80" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" s="11" customFormat="1">
       <c r="A80" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5286,7 +5553,7 @@
       <c r="J80" s="63"/>
       <c r="K80" s="65"/>
     </row>
-    <row r="81" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" s="11" customFormat="1">
       <c r="A81" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5317,7 +5584,7 @@
       <c r="J81" s="63"/>
       <c r="K81" s="65"/>
     </row>
-    <row r="82" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" s="11" customFormat="1">
       <c r="A82" s="12" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5348,7 +5615,7 @@
       <c r="J82" s="63"/>
       <c r="K82" s="65"/>
     </row>
-    <row r="83" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="11" customFormat="1">
       <c r="A83" s="12" t="str">
         <f t="shared" ref="A83:A108" si="12">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -5379,7 +5646,7 @@
       <c r="J83" s="63"/>
       <c r="K83" s="65"/>
     </row>
-    <row r="84" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" s="11" customFormat="1">
       <c r="A84" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5410,7 +5677,7 @@
       <c r="J84" s="63"/>
       <c r="K84" s="65"/>
     </row>
-    <row r="85" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="11" customFormat="1">
       <c r="A85" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5441,7 +5708,7 @@
       <c r="J85" s="63"/>
       <c r="K85" s="65"/>
     </row>
-    <row r="86" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" s="11" customFormat="1">
       <c r="A86" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5472,7 +5739,7 @@
       <c r="J86" s="63"/>
       <c r="K86" s="65"/>
     </row>
-    <row r="87" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" s="11" customFormat="1">
       <c r="A87" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5503,7 +5770,7 @@
       <c r="J87" s="63"/>
       <c r="K87" s="65"/>
     </row>
-    <row r="88" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="11" customFormat="1">
       <c r="A88" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5534,7 +5801,7 @@
       <c r="J88" s="63"/>
       <c r="K88" s="65"/>
     </row>
-    <row r="89" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" s="11" customFormat="1">
       <c r="A89" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5565,7 +5832,7 @@
       <c r="J89" s="63"/>
       <c r="K89" s="65"/>
     </row>
-    <row r="90" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" s="11" customFormat="1">
       <c r="A90" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5596,7 +5863,7 @@
       <c r="J90" s="63"/>
       <c r="K90" s="65"/>
     </row>
-    <row r="91" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" s="11" customFormat="1">
       <c r="A91" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5627,7 +5894,7 @@
       <c r="J91" s="63"/>
       <c r="K91" s="65"/>
     </row>
-    <row r="92" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" s="11" customFormat="1">
       <c r="A92" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5658,7 +5925,7 @@
       <c r="J92" s="63"/>
       <c r="K92" s="65"/>
     </row>
-    <row r="93" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" s="11" customFormat="1">
       <c r="A93" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5689,7 +5956,7 @@
       <c r="J93" s="63"/>
       <c r="K93" s="65"/>
     </row>
-    <row r="94" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" s="11" customFormat="1">
       <c r="A94" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5720,7 +5987,7 @@
       <c r="J94" s="63"/>
       <c r="K94" s="65"/>
     </row>
-    <row r="95" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" s="11" customFormat="1">
       <c r="A95" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5751,7 +6018,7 @@
       <c r="J95" s="63"/>
       <c r="K95" s="65"/>
     </row>
-    <row r="96" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" s="11" customFormat="1">
       <c r="A96" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5782,7 +6049,7 @@
       <c r="J96" s="63"/>
       <c r="K96" s="65"/>
     </row>
-    <row r="97" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="11" customFormat="1">
       <c r="A97" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5813,7 +6080,7 @@
       <c r="J97" s="63"/>
       <c r="K97" s="65"/>
     </row>
-    <row r="98" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" s="11" customFormat="1">
       <c r="A98" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5844,7 +6111,7 @@
       <c r="J98" s="63"/>
       <c r="K98" s="65"/>
     </row>
-    <row r="99" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" s="11" customFormat="1">
       <c r="A99" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5875,7 +6142,7 @@
       <c r="J99" s="63"/>
       <c r="K99" s="65"/>
     </row>
-    <row r="100" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" s="11" customFormat="1">
       <c r="A100" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5906,7 +6173,7 @@
       <c r="J100" s="63"/>
       <c r="K100" s="65"/>
     </row>
-    <row r="101" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" s="11" customFormat="1">
       <c r="A101" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5937,7 +6204,7 @@
       <c r="J101" s="63"/>
       <c r="K101" s="65"/>
     </row>
-    <row r="102" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" s="11" customFormat="1">
       <c r="A102" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5968,7 +6235,7 @@
       <c r="J102" s="63"/>
       <c r="K102" s="65"/>
     </row>
-    <row r="103" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" s="11" customFormat="1">
       <c r="A103" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -5999,7 +6266,7 @@
       <c r="J103" s="63"/>
       <c r="K103" s="65"/>
     </row>
-    <row r="104" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" s="11" customFormat="1">
       <c r="A104" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6030,7 +6297,7 @@
       <c r="J104" s="63"/>
       <c r="K104" s="65"/>
     </row>
-    <row r="105" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" s="11" customFormat="1">
       <c r="A105" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6061,7 +6328,7 @@
       <c r="J105" s="63"/>
       <c r="K105" s="65"/>
     </row>
-    <row r="106" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" s="11" customFormat="1">
       <c r="A106" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6092,7 +6359,7 @@
       <c r="J106" s="63"/>
       <c r="K106" s="65"/>
     </row>
-    <row r="107" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" s="11" customFormat="1">
       <c r="A107" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6123,7 +6390,7 @@
       <c r="J107" s="63"/>
       <c r="K107" s="65"/>
     </row>
-    <row r="108" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" s="11" customFormat="1">
       <c r="A108" s="12" t="str">
         <f t="shared" si="12"/>
         <v/>
@@ -6155,7 +6422,7 @@
       <c r="K108" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/+50cWqeCSWEledDPFd0nA3vfvIdWf8qCuc9E5jz1ifpoFfKfrmlYaeZuUOe98sPsPnq1YVmBuHJtaLN3jxF7A==" saltValue="G+Y/+FiHSh0OHuemOCgs8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="77H5Iqzv9dZcGmmBaf69JMJb19F7NL/TII5UwBSFOuUaqVrFbpC0VyStjTSM9GXqoLW1eBJcnDtnuP0mFWowpA==" saltValue="GBL6OckecvWR/Pgb/M/1sg==" spinCount="100000" sheet="1" scenarios="1" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
@@ -6181,9 +6448,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4">
       <formula1>"Cuaderno de Estudio,Recurso"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
-      <formula1>"M3A,M5A,M6A,M7A,M8A,M9B,M9C,M10B,M12D,M101,F1,F4,F6,F7,F7B,F8,F11,F13,F13B"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Matemáticas,Ciencias Naturales,Ciencias Sociales,Lenguaje"</formula1>
     </dataValidation>
@@ -6193,9 +6457,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
       <formula1>INDIRECT(IF(ISERROR(FIND(" ",$E$9)),$E$9,MID($E$9,1,FIND(" ",$E$9))))</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5">
+      <formula1>$O$2:$O$27</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6206,56 +6473,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.1875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="10.8125" style="22"/>
-    <col min="3" max="3" width="13.8125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.3125" style="22" customWidth="1"/>
-    <col min="5" max="7" width="10.8125" style="22"/>
+    <col min="1" max="1" width="72.1640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="13.83203125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="22" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="22"/>
     <col min="8" max="11" width="11" style="22" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.8125" style="22"/>
+    <col min="12" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:11" ht="16" thickBot="1">
+      <c r="A1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:11" ht="63.35" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" ht="60">
       <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6270,7 +6537,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="30" t="s">
         <v>44</v>
       </c>
@@ -6298,7 +6565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="76" thickBot="1">
       <c r="A5" s="33" t="s">
         <v>45</v>
       </c>
@@ -6306,11 +6573,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="101" t="str">
+      <c r="D5" s="104" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="105"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6325,7 +6592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="31" thickBot="1">
       <c r="A6" s="30" t="s">
         <v>10</v>
       </c>
@@ -6347,7 +6614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="46" thickBot="1">
       <c r="A7" s="33" t="s">
         <v>11</v>
       </c>
@@ -6355,12 +6622,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="87" t="str">
+      <c r="D7" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6374,7 +6641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" ht="45">
       <c r="A8" s="33" t="s">
         <v>53</v>
       </c>
@@ -6393,7 +6660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" ht="45">
       <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
@@ -6412,7 +6679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.049999999999997" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="31" thickBot="1">
       <c r="A10" s="34" t="s">
         <v>36</v>
       </c>
@@ -6431,7 +6698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11">
       <c r="I11" s="22" t="s">
         <v>32</v>
       </c>
@@ -6442,7 +6709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="16" thickBot="1">
       <c r="I12" s="22" t="s">
         <v>37</v>
       </c>
@@ -6453,15 +6720,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="A13" s="89" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6472,7 +6739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="16" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -6489,17 +6756,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6507,7 +6774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" ht="67" customHeight="1">
       <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
@@ -6531,7 +6798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="30" t="s">
         <v>44</v>
       </c>
@@ -6539,12 +6806,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="95" t="str">
+      <c r="D17" s="98" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6552,7 +6819,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.55" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" ht="76" thickBot="1">
       <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
@@ -6560,12 +6827,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="87" t="str">
+      <c r="D18" s="90" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -6573,7 +6840,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
@@ -6592,7 +6859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="61" thickBot="1">
       <c r="A20" s="34" t="s">
         <v>51</v>
       </c>
@@ -6614,7 +6881,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11">
       <c r="H21" s="22" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6631,122 +6898,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11">
       <c r="K22" s="22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11">
       <c r="K23" s="22">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11">
       <c r="K24" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11">
       <c r="K25" s="22">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11">
       <c r="K26" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11">
       <c r="K27" s="22">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11">
       <c r="K28" s="22">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11">
       <c r="K29" s="22">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11">
       <c r="K30" s="22">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11">
       <c r="K31" s="22">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11">
       <c r="K32" s="22">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="11:11">
       <c r="K33" s="22">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="11:11">
       <c r="K34" s="22">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="11:11">
       <c r="K35" s="22">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="11:11">
       <c r="K36" s="22">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="11:11">
       <c r="K37" s="22">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="11:11">
       <c r="K38" s="22">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="11:11">
       <c r="K39" s="22">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="11:11">
       <c r="K40" s="22">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="11:11">
       <c r="K41" s="22">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="11:11">
       <c r="K42" s="22">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="11:11">
       <c r="K43" s="22">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="11:11">
       <c r="K44" s="22">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="11:11">
       <c r="K45" s="22" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6780,18 +7047,19 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6800,20 +7068,21 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1014936</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6824,18 +7093,19 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6846,18 +7116,19 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>483531</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>837801</xdr:colOff>
+                    <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>713328</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6866,20 +7137,21 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>23937</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1043661</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>229797</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6888,20 +7160,21 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1053236</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>861738</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>229797</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
@@ -6910,7 +7183,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>14362</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -6918,15 +7191,17 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>229797</xdr:rowOff>
+                    <xdr:rowOff>228600</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6941,60 +7216,60 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.8125" defaultRowHeight="15.85" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="22" customWidth="1"/>
-    <col min="2" max="2" width="24.1875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="17" style="22" customWidth="1"/>
-    <col min="4" max="4" width="12.6875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="6.8125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.8125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="12.6875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="22" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="22" customWidth="1"/>
-    <col min="9" max="9" width="27.1875" style="22" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="22" customWidth="1"/>
     <col min="10" max="10" width="44.5" style="22" customWidth="1"/>
-    <col min="11" max="16384" width="10.8125" style="22"/>
+    <col min="11" max="16384" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="104" t="s">
+      <c r="B1" s="107" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="D1" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="104" t="s">
+      <c r="E1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="104" t="s">
+      <c r="F1" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="104" t="s">
+      <c r="G1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="I1" s="106"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
@@ -7002,12 +7277,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>69</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>70</v>
@@ -7027,12 +7302,12 @@
       </c>
       <c r="I3" s="40"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>74</v>
@@ -7056,12 +7331,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A5" s="43" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>78</v>
@@ -7085,12 +7360,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A6" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>79</v>
@@ -7114,7 +7389,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>58</v>
       </c>
@@ -7139,12 +7414,12 @@
       </c>
       <c r="I7" s="42"/>
     </row>
-    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A8" s="42" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>81</v>
@@ -7168,12 +7443,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A9" s="42" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>83</v>
@@ -7197,12 +7472,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A10" s="42" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>85</v>
@@ -7226,12 +7501,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A11" s="42" t="s">
         <v>86</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>87</v>
@@ -7251,14 +7526,14 @@
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A12" s="42" t="s">
         <v>89</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="72" t="s">
         <v>90</v>
       </c>
       <c r="D12" s="42" t="s">
@@ -7280,12 +7555,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" s="41" customFormat="1" ht="14.75" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="42" t="s">
         <v>92</v>
@@ -7309,7 +7584,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="14.75" customHeight="1">
       <c r="A14" s="44" t="s">
         <v>94</v>
       </c>
@@ -7332,33 +7607,33 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:10" s="76" customFormat="1" ht="14.75" customHeight="1">
+      <c r="A15" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="44" t="s">
+      <c r="E15" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="42" t="s">
+      <c r="G15" s="74"/>
+      <c r="H15" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="22" t="s">
+      <c r="I15" s="74"/>
+      <c r="J15" s="76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="14.75" customHeight="1">
       <c r="A16" s="46" t="s">
         <v>100</v>
       </c>
@@ -7377,16 +7652,16 @@
         <v>116</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I16" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" ht="14.75" customHeight="1">
       <c r="A17" s="42" t="s">
         <v>103</v>
       </c>
@@ -7399,10 +7674,10 @@
         <v>72</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H17" s="48" t="s">
         <v>104</v>
@@ -7414,15 +7689,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" ht="14.75" customHeight="1">
       <c r="A18" s="42" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>71</v>
@@ -7440,12 +7715,12 @@
       <c r="I18" s="44"/>
       <c r="J18" s="49"/>
     </row>
-    <row r="19" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="14.75" customHeight="1">
       <c r="A19" s="42" t="s">
         <v>137</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="44" t="s">
@@ -7455,7 +7730,7 @@
         <v>93</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G19" s="44"/>
       <c r="H19" s="42" t="s">
@@ -7464,12 +7739,12 @@
       <c r="I19" s="44"/>
       <c r="J19" s="49"/>
     </row>
-    <row r="20" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="14.75" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>137</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44" t="s">
@@ -7479,7 +7754,7 @@
         <v>93</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" s="44"/>
       <c r="H20" s="42" t="s">
@@ -7488,12 +7763,12 @@
       <c r="I20" s="44"/>
       <c r="J20" s="49"/>
     </row>
-    <row r="21" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="14.75" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>137</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
@@ -7503,21 +7778,21 @@
         <v>93</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G21" s="44"/>
       <c r="H21" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="49"/>
     </row>
-    <row r="22" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" ht="14.75" customHeight="1">
       <c r="A22" s="44" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C22" s="44" t="s">
         <v>133</v>
@@ -7529,19 +7804,19 @@
         <v>93</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" ht="14.75" customHeight="1">
       <c r="A23" s="42" t="s">
         <v>132</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>133</v>
@@ -7553,10 +7828,10 @@
         <v>93</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H23" s="44" t="s">
         <v>123</v>
@@ -7565,27 +7840,35 @@
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" ht="14.75" customHeight="1">
       <c r="A24" s="42" t="s">
         <v>134</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
+      <c r="D24" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>176</v>
+      </c>
       <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="I24" s="71"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.75" customHeight="1">
       <c r="A25" s="42" t="s">
         <v>135</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>144</v>
@@ -7597,19 +7880,19 @@
         <v>93</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G25" s="46"/>
       <c r="H25" s="42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" ht="14.75" customHeight="1">
       <c r="A26" s="42" t="s">
         <v>135</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>144</v>
@@ -7621,10 +7904,10 @@
         <v>93</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>123</v>
@@ -7633,12 +7916,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" ht="14.75" customHeight="1">
       <c r="A27" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>133</v>
@@ -7650,19 +7933,19 @@
         <v>93</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G27" s="46"/>
       <c r="H27" s="42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" ht="14.75" customHeight="1">
       <c r="A28" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>133</v>
@@ -7674,19 +7957,19 @@
         <v>93</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G28" s="46"/>
       <c r="H28" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.75" customHeight="1">
       <c r="A29" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>133</v>
@@ -7698,10 +7981,10 @@
         <v>93</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>123</v>
@@ -7710,15 +7993,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" ht="14.75" customHeight="1">
       <c r="A30" s="42" t="s">
         <v>139</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="44" t="s">
         <v>71</v>
@@ -7727,18 +8010,18 @@
         <v>93</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
     </row>
-    <row r="31" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" ht="14.75" customHeight="1">
       <c r="A31" s="42" t="s">
         <v>140</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>145</v>
@@ -7750,12 +8033,12 @@
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
     </row>
-    <row r="32" spans="1:10" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" ht="14.75" customHeight="1">
       <c r="A32" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C32" s="44"/>
       <c r="D32" s="44"/>
@@ -7765,31 +8048,37 @@
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
     </row>
-    <row r="33" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" ht="14.75" customHeight="1">
       <c r="A33" s="42" t="s">
         <v>136</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+        <v>155</v>
+      </c>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>185</v>
+      </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
     </row>
-    <row r="34" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" ht="14.75" customHeight="1">
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" s="44"/>
+        <v>155</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>186</v>
+      </c>
       <c r="D34" s="44"/>
       <c r="E34" s="44"/>
       <c r="F34" s="44"/>
@@ -7797,15 +8086,15 @@
       <c r="H34" s="44"/>
       <c r="I34" s="44"/>
     </row>
-    <row r="35" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" ht="14.75" customHeight="1">
       <c r="A35" s="42" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>71</v>
@@ -7814,10 +8103,10 @@
         <v>93</v>
       </c>
       <c r="F35" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="44" t="s">
         <v>181</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>183</v>
       </c>
       <c r="H35" s="44" t="s">
         <v>123</v>
@@ -7826,15 +8115,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" ht="14.75" customHeight="1">
       <c r="A36" s="42" t="s">
         <v>95</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="44" t="s">
         <v>71</v>
@@ -7843,10 +8132,10 @@
         <v>93</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H36" s="44" t="s">
         <v>123</v>
@@ -7855,15 +8144,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" ht="14.75" customHeight="1">
       <c r="A37" s="42" t="s">
         <v>143</v>
       </c>
       <c r="B37" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="44" t="s">
         <v>170</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>172</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>71</v>
@@ -7872,21 +8161,21 @@
         <v>93</v>
       </c>
       <c r="F37" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
       <c r="I37" s="44"/>
     </row>
-    <row r="38" spans="1:9" ht="14.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" ht="14.75" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D38" s="44" t="s">
         <v>71</v>
@@ -7895,19 +8184,19 @@
         <v>93</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9">
       <c r="A40" s="50" t="s">
         <v>107</v>
       </c>
       <c r="B40" s="50"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9">
       <c r="A41" s="51" t="s">
         <v>108</v>
       </c>
@@ -7921,7 +8210,7 @@
       <c r="E41" s="52"/>
       <c r="F41" s="52"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:9">
       <c r="A42" s="54" t="s">
         <v>109</v>
       </c>
@@ -7935,7 +8224,7 @@
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9">
       <c r="A43" s="54" t="s">
         <v>110</v>
       </c>
@@ -7949,7 +8238,7 @@
       <c r="E43" s="55"/>
       <c r="F43" s="55"/>
     </row>
-    <row r="44" spans="1:9" ht="31.7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="54" t="s">
         <v>111</v>
       </c>
@@ -7958,12 +8247,12 @@
         <v>129</v>
       </c>
       <c r="D44" s="56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="55"/>
       <c r="F44" s="55"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:9">
       <c r="A45" s="54" t="s">
         <v>112</v>
       </c>
@@ -7977,13 +8266,13 @@
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
     </row>
-    <row r="46" spans="1:9" ht="47.5" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B46" s="54"/>
       <c r="C46" s="55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D46" s="56" t="s">
         <v>113</v>
@@ -7992,7 +8281,7 @@
       <c r="F46" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qWgTxtpLbRUvu5aroR2UqIhjRvI+W9eTnNtggnQN6cunxZc9eASg+7JPhibGu2Qmhok1RUSlRXeo4cauHXAeZg==" saltValue="j5ozy/tthsrY5igtMeBtrA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Nx0MT6cG32lJ5EgaXjRVV6wNO3hVGkIZiOpFS9uFF12AHWFOQBCw//0gjOaRn4bEibeBb538goTy9tlWr0zWxw==" saltValue="XLpWVwkAZGq/3MUQ59DSKg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:A2"/>

--- a/fuentes/contenidos/grado10/guion04/SolicitudGrafica_CN_10_04.xlsx
+++ b/fuentes/contenidos/grado10/guion04/SolicitudGrafica_CN_10_04.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="hX79YNGfHMUCcosWMoH0GQuhNo2gkebFrfW3do2TOcvwqaujU9m0uwOL5UkRtWEspAy/ISD2JB8+jf057W9mVA==" workbookSaltValue="uRz/CDpmZ5ecKheoN1C0Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="0" windowWidth="13140" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="13760" yWindow="0" windowWidth="11840" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="235">
   <si>
     <t>Fecha:</t>
   </si>
@@ -650,9 +650,6 @@
     <t>Fuerza de los libros apoyados sobre la mesa</t>
   </si>
   <si>
-    <t>Características de la fuerza</t>
-  </si>
-  <si>
     <t>Fuerzas colineales</t>
   </si>
   <si>
@@ -704,27 +701,6 @@
     <t>Fuerza normal sobre un libro apoyado en una mesa</t>
   </si>
   <si>
-    <t>Fuerzas que actuan sobre un plano inclinado</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/3/39/GodfreyKneller-IsaacNewton-1689.jpg</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/0/0e/Parallel_net_force01.jpg</t>
-  </si>
-  <si>
-    <t>http://www.texample.net/media/tikz/examples/PNG/free-body-diagrams.png</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
-  </si>
-  <si>
-    <t>Fuerzas en equilibrio: Primera Ley de Newton</t>
-  </si>
-  <si>
-    <t>Desequilibrio de fuerzas: Segunda Ley de Newton</t>
-  </si>
-  <si>
     <t>Imagen adaptada: cambiar la letra P por la letra W, conservando los subíndices. También se debe alargar la flecha que al lado del Wx. Revisar muestra con cambios,</t>
   </si>
   <si>
@@ -737,84 +713,25 @@
     <t>Cambiar la letra P por W conservando los subíndices 1 y 2.</t>
   </si>
   <si>
-    <t>Imagen con adaptación del autor, revisar muestra</t>
-  </si>
-  <si>
-    <t>Fuerza neta obtenida gráficamente 1</t>
-  </si>
-  <si>
-    <t>Fuerza neta obtenida gráficamente 2</t>
-  </si>
-  <si>
-    <t>Cambios como en el anterior, revisar muestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagen adaptada: Agregar y modificar las letras que se indican 
-Los vectores (flechas) N y Wy deben quedar de la misma longitud.
-Los vectores (flechas) T y Wx deben quedar de la misma longitud. Revisar muestra
-</t>
-  </si>
-  <si>
-    <t>Tercera ley de Newton: Ley de acción-reacción</t>
-  </si>
-  <si>
-    <t>4° ESO/Física y Química/La dinámica/2. Las leyes de Newton/2.3 La tercera ley de Newton o ley de acción y reacción</t>
-  </si>
-  <si>
-    <t>Funcionamiento de un cohete: Tercera ley de Newton</t>
-  </si>
-  <si>
-    <t>Aceleración centrípeta</t>
-  </si>
-  <si>
-    <t>4° ESO/ Física y química/La dinámica/5. La fuerza centrípeta</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/f/ff/Breaking_String.PNG</t>
-  </si>
-  <si>
-    <t>Fuerza centrípeta en ruptura de cuerda en movimiento circular</t>
-  </si>
-  <si>
-    <t>Cambiar las palabras de inglés a español:
-Velocity por velocidad
-Centripetal forcé por Fuerza centrípeta</t>
-  </si>
-  <si>
-    <t>Fuerza centrípeta en pista circular</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/40/US_Navy_040501-N-1336S-037_The_U.S._Navy_sponsored_Chevy_Monte_Carlo_NASCAR_leads_a_pack_into_turn_four_at_California_Speedway.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Par de fuerzas </t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/48/Par_de_fuerzas.jpg</t>
-  </si>
-  <si>
-    <t>Producto vectorial o producto cruz</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/4/4e/Cross_product_parallelogram.svg</t>
-  </si>
-  <si>
-    <t>Torque: Principio de la balanza</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/c/c3/Lever_Principle_3D.png</t>
-  </si>
-  <si>
-    <t>quitar la ecuación  y poner la letra O. Revisar muestra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palancas y su clasificación </t>
-  </si>
-  <si>
-    <t>4°ESO/Física y química/La fuerza/3. Fuerzas en equilibrio/ 3.1 El equilibrio en máquinas simples: la palanca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionamiento palanca de primer género  </t>
+    <t>Elementos del vector fuerza</t>
+  </si>
+  <si>
+    <t>https://pixabay.com/es/tierra-planeta-azul-globo-luna-11007/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuerza gravitacional entre la Tierra y la Luna </t>
+  </si>
+  <si>
+    <t>Creada por autor, ilustrar</t>
+  </si>
+  <si>
+    <t>uerza normal sobre un libro apoyado en una mesa</t>
+  </si>
+  <si>
+    <t>https://www.flickr.com/photos/56380734@N05/5401199351</t>
+  </si>
+  <si>
+    <t>Polea</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1397,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1802,6 +1741,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1900,12 +1843,8 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="123">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
@@ -1956,6 +1895,17 @@
     <cellStyle name="Hipervínculo" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
@@ -2006,6 +1956,17 @@
     <cellStyle name="Hipervínculo visitado" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2693,8 +2654,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="9" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2740,14 +2701,14 @@
       <c r="B2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="F2" s="77" t="s">
+      <c r="D2" s="86"/>
+      <c r="F2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="58"/>
       <c r="I2" s="58"/>
       <c r="J2" s="14"/>
@@ -2771,14 +2732,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="87">
         <v>10</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="F3" s="79">
+      <c r="D3" s="88"/>
+      <c r="F3" s="80">
         <v>42144</v>
       </c>
-      <c r="G3" s="80"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="58"/>
       <c r="I3" s="38"/>
       <c r="J3" s="14"/>
@@ -2802,10 +2763,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="88"/>
       <c r="E4" s="5"/>
       <c r="F4" s="37" t="s">
         <v>55</v>
@@ -2834,10 +2795,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="89"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="5"/>
       <c r="F5" s="37" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2921,12 +2882,12 @@
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
       <c r="J8" s="16"/>
       <c r="K8" s="11"/>
       <c r="M8" s="2" t="str">
@@ -2991,7 +2952,7 @@
         <v>192</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f t="shared" ref="C10:C41" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f t="shared" ref="C10:C18" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="63" t="s">
@@ -3081,7 +3042,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>153</v>
@@ -3103,7 +3064,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="64" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K12" s="64"/>
       <c r="O12" s="2" t="str">
@@ -3146,7 +3107,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K13" s="64"/>
       <c r="O13" s="2" t="str">
@@ -3167,7 +3128,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>153</v>
@@ -3189,7 +3150,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K14" s="64"/>
       <c r="O14" s="2" t="str">
@@ -3210,7 +3171,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>153</v>
@@ -3232,7 +3193,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15" s="66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K15" s="66"/>
       <c r="O15" s="2" t="str">
@@ -3275,7 +3236,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J16" s="67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K16" s="68"/>
       <c r="O16" s="2" t="str">
@@ -3296,7 +3257,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>153</v>
@@ -3318,7 +3279,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K17" s="66"/>
       <c r="O17" s="2" t="str">
@@ -3339,7 +3300,7 @@
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>153</v>
@@ -3361,7 +3322,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K18" s="66"/>
       <c r="O18" s="2" t="str">
@@ -3371,24 +3332,24 @@
     </row>
     <row r="19" spans="1:15" s="11" customFormat="1">
       <c r="A19" s="12" t="str">
-        <f t="shared" ref="A19:A50" si="6">IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v>IMG10</v>
       </c>
       <c r="B19" s="62" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F19" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I19="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG10_small</v>
       </c>
       <c r="G19" s="13" t="str">
@@ -3396,7 +3357,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H19" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I19&lt;&gt;"",I19&lt;&gt;0),IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE($C$7,"_",$A19,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="13" t="str">
@@ -3404,7 +3365,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19" s="67" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="K19" s="68"/>
       <c r="O19" s="2" t="str">
@@ -3414,24 +3375,24 @@
     </row>
     <row r="20" spans="1:15" s="11" customFormat="1">
       <c r="A20" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v>IMG11</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F20" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I20="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG11_small</v>
       </c>
       <c r="G20" s="13" t="str">
@@ -3439,17 +3400,17 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H20" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I20&lt;&gt;"",I20&lt;&gt;0),IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE($C$7,"_",$A20,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="13" t="str">
         <f ca="1">IF(OR($B20&lt;&gt;"",$J20&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E20,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="66"/>
+      <c r="J20" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="68"/>
       <c r="O20" s="2" t="str">
         <f>'Definición técnica de imagenes'!A32</f>
         <v>F10B</v>
@@ -3457,14 +3418,14 @@
     </row>
     <row r="21" spans="1:15" s="11" customFormat="1">
       <c r="A21" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(LEFT(A20,3),IF(MID(A20,4,2)+1&lt;10,CONCATENATE("0",MID(A20,4,2)+1),MID(A20,4,2)+1)),"")</f>
         <v>IMG12</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D21" s="63" t="s">
@@ -3474,7 +3435,7 @@
         <v>153</v>
       </c>
       <c r="F21" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG12_small</v>
       </c>
       <c r="G21" s="13" t="str">
@@ -3482,17 +3443,19 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H21" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I21&lt;&gt;"",I21&lt;&gt;0),IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="13" t="str">
         <f ca="1">IF(OR($B21&lt;&gt;"",$J21&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E21,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="K21" s="66"/>
+      <c r="J21" s="64" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>231</v>
+      </c>
       <c r="O21" s="2" t="str">
         <f>'Definición técnica de imagenes'!A33</f>
         <v>F11</v>
@@ -3500,14 +3463,14 @@
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1">
       <c r="A22" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE(LEFT(A21,3),IF(MID(A21,4,2)+1&lt;10,CONCATENATE("0",MID(A21,4,2)+1),MID(A21,4,2)+1)),"")</f>
         <v>IMG13</v>
       </c>
       <c r="B22" s="62" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D22" s="63" t="s">
@@ -3517,7 +3480,7 @@
         <v>153</v>
       </c>
       <c r="F22" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I22="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG13_small</v>
       </c>
       <c r="G22" s="13" t="str">
@@ -3525,42 +3488,42 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H22" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I22&lt;&gt;"",I22&lt;&gt;0),IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),CONCATENATE($C$7,"_",$A22,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="13" t="str">
         <f ca="1">IF(OR($B22&lt;&gt;"",$J22&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E22,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="63" t="s">
-        <v>217</v>
-      </c>
-      <c r="K22" s="108"/>
+      <c r="J22" s="66" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="66"/>
       <c r="O22" s="2" t="str">
         <f>'Definición técnica de imagenes'!A34</f>
         <v>F12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="23" spans="1:15" s="11" customFormat="1">
       <c r="A23" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE(LEFT(A22,3),IF(MID(A22,4,2)+1&lt;10,CONCATENATE("0",MID(A22,4,2)+1),MID(A22,4,2)+1)),"")</f>
         <v>IMG14</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E23" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F23" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I23="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG14_small</v>
       </c>
       <c r="G23" s="13" t="str">
@@ -3568,17 +3531,17 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H23" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I23&lt;&gt;"",I23&lt;&gt;0),IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),CONCATENATE($C$7,"_",$A23,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="13" t="str">
         <f ca="1">IF(OR($B23&lt;&gt;"",$J23&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E23,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="64" t="s">
-        <v>218</v>
-      </c>
-      <c r="K23" s="64"/>
+      <c r="J23" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="K23" s="77"/>
       <c r="O23" s="2" t="str">
         <f>'Definición técnica de imagenes'!A35</f>
         <v>F13</v>
@@ -3586,24 +3549,24 @@
     </row>
     <row r="24" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A24" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE(LEFT(A23,3),IF(MID(A23,4,2)+1&lt;10,CONCATENATE("0",MID(A23,4,2)+1),MID(A23,4,2)+1)),"")</f>
         <v>IMG15</v>
       </c>
       <c r="B24" s="62" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E24" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE($C$7,"_",$A24,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I24="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG15_small</v>
       </c>
       <c r="G24" s="13" t="str">
@@ -3611,42 +3574,42 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H24" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I24&lt;&gt;"",I24&lt;&gt;0),IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),CONCATENATE($C$7,"_",$A24,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="13" t="str">
         <f ca="1">IF(OR($B24&lt;&gt;"",$J24&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E24,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24" s="65"/>
+      <c r="J24" s="64" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="64"/>
       <c r="O24" s="2" t="str">
         <f>'Definición técnica de imagenes'!A37</f>
         <v>F13B</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="52">
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A25" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE(LEFT(A24,3),IF(MID(A24,4,2)+1&lt;10,CONCATENATE("0",MID(A24,4,2)+1),MID(A24,4,2)+1)),"")</f>
         <v>IMG16</v>
       </c>
       <c r="B25" s="62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E25" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F25" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE($C$7,"_",$A25,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I25="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG16_small</v>
       </c>
       <c r="G25" s="13" t="str">
@@ -3654,7 +3617,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H25" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I25&lt;&gt;"",I25&lt;&gt;0),IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),CONCATENATE($C$7,"_",$A25,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="13" t="str">
@@ -3662,22 +3625,20 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="K25" s="64" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="26">
+        <v>218</v>
+      </c>
+      <c r="K25" s="65"/>
+    </row>
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="52">
       <c r="A26" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE(LEFT(A25,3),IF(MID(A25,4,2)+1&lt;10,CONCATENATE("0",MID(A25,4,2)+1),MID(A25,4,2)+1)),"")</f>
         <v>IMG17</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D26" s="63" t="s">
@@ -3687,7 +3648,7 @@
         <v>153</v>
       </c>
       <c r="F26" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE($C$7,"_",$A26,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I26="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG17_small</v>
       </c>
       <c r="G26" s="13" t="str">
@@ -3695,7 +3656,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H26" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I26&lt;&gt;"",I26&lt;&gt;0),IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),CONCATENATE($C$7,"_",$A26,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="13" t="str">
@@ -3703,30 +3664,32 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="K26" s="64"/>
-    </row>
-    <row r="27" spans="1:15" s="11" customFormat="1">
+        <v>219</v>
+      </c>
+      <c r="K26" s="64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A27" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE(LEFT(A26,3),IF(MID(A26,4,2)+1&lt;10,CONCATENATE("0",MID(A26,4,2)+1),MID(A26,4,2)+1)),"")</f>
         <v>IMG18</v>
       </c>
       <c r="B27" s="62" t="s">
         <v>199</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E27" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F27" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE($C$7,"_",$A27,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I27="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG18_small</v>
       </c>
       <c r="G27" s="13" t="str">
@@ -3734,39 +3697,39 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H27" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I27&lt;&gt;"",I27&lt;&gt;0),IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE($C$7,"_",$A27,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG18_zoom</v>
       </c>
       <c r="I27" s="13" t="str">
         <f ca="1">IF(OR($B27&lt;&gt;"",$J27&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E27,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="64" t="s">
-        <v>223</v>
+      <c r="J27" s="63" t="s">
+        <v>221</v>
       </c>
       <c r="K27" s="64"/>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="28" spans="1:15" s="11" customFormat="1">
       <c r="A28" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE(LEFT(A27,3),IF(MID(A27,4,2)+1&lt;10,CONCATENATE("0",MID(A27,4,2)+1),MID(A27,4,2)+1)),"")</f>
         <v>IMG19</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E28" s="63" t="s">
         <v>153</v>
       </c>
       <c r="F28" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE($C$7,"_",$A28,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I28="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CN_10_04_CO_IMG19_small</v>
       </c>
       <c r="G28" s="13" t="str">
@@ -3774,7 +3737,7 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H28" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I28&lt;&gt;"",I28&lt;&gt;0),IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE($C$7,"_",$A28,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CN_10_04_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="13" t="str">
@@ -3782,24 +3745,24 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J28" s="64" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K28" s="64"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="65">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="26">
       <c r="A29" s="12" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),CONCATENATE(LEFT(A28,3),IF(MID(A28,4,2)+1&lt;10,CONCATENATE("0",MID(A28,4,2)+1),MID(A28,4,2)+1)),"")</f>
         <v>IMG20</v>
       </c>
       <c r="B29" s="62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="20" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E29" s="63" t="s">
         <v>153</v>
@@ -3821,26 +3784,24 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J29" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="26">
+        <v>223</v>
+      </c>
+      <c r="K29" s="64"/>
+    </row>
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="65">
       <c r="A30" s="12" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(LEFT(A29,3),IF(MID(A29,4,2)+1&lt;10,CONCATENATE("0",MID(A29,4,2)+1),MID(A29,4,2)+1)),"")</f>
         <v>IMG21</v>
       </c>
       <c r="B30" s="62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C30" s="20" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D30" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E30" s="63" t="s">
         <v>153</v>
@@ -3862,19 +3823,19 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J30" s="64" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K30" s="64" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="26">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1">
       <c r="A31" s="12" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),CONCATENATE(LEFT(A30,3),IF(MID(A30,4,2)+1&lt;10,CONCATENATE("0",MID(A30,4,2)+1),MID(A30,4,2)+1)),"")</f>
         <v>IMG22</v>
       </c>
       <c r="B31" s="62" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C31" s="20" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -3903,7 +3864,7 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J31" s="64" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="K31" s="64"/>
     </row>
@@ -3913,14 +3874,14 @@
         <v>IMG23</v>
       </c>
       <c r="B32" s="62" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D32" s="63" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E32" s="63" t="s">
         <v>153</v>
@@ -3942,546 +3903,432 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J32" s="64" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K32" s="64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="26">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="11" customFormat="1">
       <c r="A33" s="12" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE(LEFT(A32,3),IF(MID(A32,4,2)+1&lt;10,CONCATENATE("0",MID(A32,4,2)+1),MID(A32,4,2)+1)),"")</f>
-        <v>IMG24</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>227</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B33" s="62"/>
       <c r="C33" s="20" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="13" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I33="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_10_04_CO_IMG24_small</v>
+        <v/>
       </c>
       <c r="G33" s="13" t="str">
         <f ca="1">IF($F33&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H33" s="13" t="str">
         <f ca="1">IF(AND(I33&lt;&gt;"",I33&lt;&gt;0),IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_10_04_CO_IMG24_zoom</v>
+        <v/>
       </c>
       <c r="I33" s="13" t="str">
         <f ca="1">IF(OR($B33&lt;&gt;"",$J33&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E33,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J33" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="K33" s="64" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="117">
+        <v/>
+      </c>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+    </row>
+    <row r="34" spans="1:15" s="11" customFormat="1">
       <c r="A34" s="12" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE(LEFT(A33,3),IF(MID(A33,4,2)+1&lt;10,CONCATENATE("0",MID(A33,4,2)+1),MID(A33,4,2)+1)),"")</f>
-        <v>IMG25</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>228</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B34" s="62"/>
       <c r="C34" s="20" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="13" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE($C$7,"_",$A34,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I34="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_10_04_CO_IMG25_small</v>
+        <v/>
       </c>
       <c r="G34" s="13" t="str">
         <f ca="1">IF($F34&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H34" s="13" t="str">
         <f ca="1">IF(AND(I34&lt;&gt;"",I34&lt;&gt;0),IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),CONCATENATE($C$7,"_",$A34,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_10_04_CO_IMG25_zoom</v>
+        <v/>
       </c>
       <c r="I34" s="13" t="str">
         <f ca="1">IF(OR($B34&lt;&gt;"",$J34&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E34,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J34" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="K34" s="64" t="s">
-        <v>240</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="35" spans="1:15" s="11" customFormat="1">
       <c r="A35" s="12" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE(LEFT(A34,3),IF(MID(A34,4,2)+1&lt;10,CONCATENATE("0",MID(A34,4,2)+1),MID(A34,4,2)+1)),"")</f>
-        <v>IMG26</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>228</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B35" s="62"/>
       <c r="C35" s="20" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E35" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="13" t="str">
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I35="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_10_04_CO_IMG26_small</v>
+        <v/>
       </c>
       <c r="G35" s="13" t="str">
         <f ca="1">IF($F35&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H35" s="13" t="str">
         <f ca="1">IF(AND(I35&lt;&gt;"",I35&lt;&gt;0),IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_10_04_CO_IMG26_zoom</v>
+        <v/>
       </c>
       <c r="I35" s="13" t="str">
         <f ca="1">IF(OR($B35&lt;&gt;"",$J35&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E35,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J35" s="64" t="s">
-        <v>231</v>
-      </c>
-      <c r="K35" s="64" t="s">
-        <v>239</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="36" spans="1:15" s="11" customFormat="1">
       <c r="A36" s="12" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE(LEFT(A35,3),IF(MID(A35,4,2)+1&lt;10,CONCATENATE("0",MID(A35,4,2)+1),MID(A35,4,2)+1)),"")</f>
-        <v>IMG27</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>242</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B36" s="62"/>
       <c r="C36" s="20" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>153</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
       <c r="F36" s="13" t="str">
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE($C$7,"_",$A36,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I36="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CN_10_04_CO_IMG27_small</v>
+        <v/>
       </c>
       <c r="G36" s="13" t="str">
         <f ca="1">IF($F36&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H36" s="13" t="str">
         <f ca="1">IF(AND(I36&lt;&gt;"",I36&lt;&gt;0),IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),CONCATENATE($C$7,"_",$A36,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CN_10_04_CO_IMG27_zoom</v>
+        <v/>
       </c>
       <c r="I36" s="13" t="str">
         <f ca="1">IF(OR($B36&lt;&gt;"",$J36&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E36,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J36" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="K36" s="65"/>
+        <v/>
+      </c>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="37" spans="1:15" s="11" customFormat="1">
       <c r="A37" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG28</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>242</v>
-      </c>
+        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE(LEFT(A36,3),IF(MID(A36,4,2)+1&lt;10,CONCATENATE("0",MID(A36,4,2)+1),MID(A36,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B37" s="62"/>
       <c r="C37" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG28_small</v>
+        <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE($C$7,"_",$A37,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I37="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G37" s="13" t="str">
         <f ca="1">IF($F37&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H37" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG28_zoom</v>
+        <f ca="1">IF(AND(I37&lt;&gt;"",I37&lt;&gt;0),IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),CONCATENATE($C$7,"_",$A37,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I37" s="13" t="str">
         <f ca="1">IF(OR($B37&lt;&gt;"",$J37&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E37,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J37" s="69" t="s">
-        <v>243</v>
-      </c>
-      <c r="K37" s="65"/>
+        <v/>
+      </c>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
     </row>
     <row r="38" spans="1:15" s="11" customFormat="1">
       <c r="A38" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG29</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>245</v>
-      </c>
+        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE(LEFT(A37,3),IF(MID(A37,4,2)+1&lt;10,CONCATENATE("0",MID(A37,4,2)+1),MID(A37,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B38" s="62"/>
       <c r="C38" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
       <c r="F38" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG29_small</v>
+        <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE($C$7,"_",$A38,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I38="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G38" s="13" t="str">
         <f ca="1">IF($F38&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H38" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG29_zoom</v>
+        <f ca="1">IF(AND(I38&lt;&gt;"",I38&lt;&gt;0),IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),CONCATENATE($C$7,"_",$A38,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I38" s="13" t="str">
         <f ca="1">IF(OR($B38&lt;&gt;"",$J38&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E38,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J38" s="70" t="s">
-        <v>244</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J38" s="63"/>
       <c r="K38" s="65"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="65">
+    <row r="39" spans="1:15" s="11" customFormat="1">
       <c r="A39" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG30</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>246</v>
-      </c>
+        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),CONCATENATE(LEFT(A38,3),IF(MID(A38,4,2)+1&lt;10,CONCATENATE("0",MID(A38,4,2)+1),MID(A38,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B39" s="62"/>
       <c r="C39" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E39" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG30_small</v>
+        <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),CONCATENATE($C$7,"_",$A39,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I39="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G39" s="13" t="str">
         <f ca="1">IF($F39&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H39" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG30_zoom</v>
+        <f ca="1">IF(AND(I39&lt;&gt;"",I39&lt;&gt;0),IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),CONCATENATE($C$7,"_",$A39,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I39" s="13" t="str">
         <f ca="1">IF(OR($B39&lt;&gt;"",$J39&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E39,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J39" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="K39" s="65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="39">
+        <v/>
+      </c>
+      <c r="J39" s="69"/>
+      <c r="K39" s="65"/>
+    </row>
+    <row r="40" spans="1:15" s="11" customFormat="1">
       <c r="A40" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG31</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>250</v>
-      </c>
+        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),CONCATENATE(LEFT(A39,3),IF(MID(A39,4,2)+1&lt;10,CONCATENATE("0",MID(A39,4,2)+1),MID(A39,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B40" s="62"/>
       <c r="C40" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
       <c r="F40" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG31_small</v>
+        <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),CONCATENATE($C$7,"_",$A40,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I40="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G40" s="13" t="str">
         <f ca="1">IF($F40&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H40" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG31_zoom</v>
+        <f ca="1">IF(AND(I40&lt;&gt;"",I40&lt;&gt;0),IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),CONCATENATE($C$7,"_",$A40,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I40" s="13" t="str">
         <f ca="1">IF(OR($B40&lt;&gt;"",$J40&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E40,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J40" s="63" t="s">
-        <v>249</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J40" s="70"/>
       <c r="K40" s="65"/>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1">
       <c r="A41" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG32</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>252</v>
-      </c>
+        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),CONCATENATE(LEFT(A40,3),IF(MID(A40,4,2)+1&lt;10,CONCATENATE("0",MID(A40,4,2)+1),MID(A40,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B41" s="62"/>
       <c r="C41" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG32_small</v>
+        <f>IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),CONCATENATE($C$7,"_",$A41,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I41="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G41" s="13" t="str">
         <f ca="1">IF($F41&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H41" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG32_zoom</v>
+        <f ca="1">IF(AND(I41&lt;&gt;"",I41&lt;&gt;0),IF(OR(B41&lt;&gt;"",J41&lt;&gt;""),CONCATENATE($C$7,"_",$A41,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I41" s="13" t="str">
         <f ca="1">IF(OR($B41&lt;&gt;"",$J41&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E41,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J41" s="63" t="s">
-        <v>251</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J41" s="63"/>
       <c r="K41" s="65"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="42" spans="1:15" s="11" customFormat="1">
       <c r="A42" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG33</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>254</v>
-      </c>
+        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),CONCATENATE(LEFT(A41,3),IF(MID(A41,4,2)+1&lt;10,CONCATENATE("0",MID(A41,4,2)+1),MID(A41,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B42" s="62"/>
       <c r="C42" s="20" t="str">
-        <f t="shared" ref="C42:C73" si="7">IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
       <c r="F42" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG33_small</v>
+        <f>IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),CONCATENATE($C$7,"_",$A42,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I42="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G42" s="13" t="str">
         <f ca="1">IF($F42&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H42" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG33_zoom</v>
+        <f ca="1">IF(AND(I42&lt;&gt;"",I42&lt;&gt;0),IF(OR(B42&lt;&gt;"",J42&lt;&gt;""),CONCATENATE($C$7,"_",$A42,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I42" s="13" t="str">
         <f ca="1">IF(OR($B42&lt;&gt;"",$J42&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E42,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J42" s="63" t="s">
-        <v>253</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J42" s="63"/>
       <c r="K42" s="65"/>
     </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="43" spans="1:15" s="11" customFormat="1">
       <c r="A43" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG34</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>256</v>
-      </c>
+        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE(LEFT(A42,3),IF(MID(A42,4,2)+1&lt;10,CONCATENATE("0",MID(A42,4,2)+1),MID(A42,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B43" s="62"/>
       <c r="C43" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG34_small</v>
+        <f>IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE($C$7,"_",$A43,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I43="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G43" s="13" t="str">
         <f ca="1">IF($F43&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H43" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG34_zoom</v>
+        <f ca="1">IF(AND(I43&lt;&gt;"",I43&lt;&gt;0),IF(OR(B43&lt;&gt;"",J43&lt;&gt;""),CONCATENATE($C$7,"_",$A43,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I43" s="13" t="str">
         <f ca="1">IF(OR($B43&lt;&gt;"",$J43&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E43,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J43" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="K43" s="65" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="26">
+        <v/>
+      </c>
+      <c r="J43" s="63"/>
+      <c r="K43" s="65"/>
+    </row>
+    <row r="44" spans="1:15" s="11" customFormat="1">
       <c r="A44" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG35</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>259</v>
-      </c>
+        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),CONCATENATE(LEFT(A43,3),IF(MID(A43,4,2)+1&lt;10,CONCATENATE("0",MID(A43,4,2)+1),MID(A43,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B44" s="62"/>
       <c r="C44" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E44" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
       <c r="F44" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG35_small</v>
+        <f>IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),CONCATENATE($C$7,"_",$A44,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I44="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G44" s="13" t="str">
         <f ca="1">IF($F44&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H44" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG35_zoom</v>
+        <f ca="1">IF(AND(I44&lt;&gt;"",I44&lt;&gt;0),IF(OR(B44&lt;&gt;"",J44&lt;&gt;""),CONCATENATE($C$7,"_",$A44,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I44" s="13" t="str">
         <f ca="1">IF(OR($B44&lt;&gt;"",$J44&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E44,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J44" s="63" t="s">
-        <v>258</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J44" s="63"/>
       <c r="K44" s="65"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="26">
+    <row r="45" spans="1:15" s="11" customFormat="1">
       <c r="A45" s="12" t="str">
-        <f t="shared" si="6"/>
-        <v>IMG36</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>259</v>
-      </c>
+        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),CONCATENATE(LEFT(A44,3),IF(MID(A44,4,2)+1&lt;10,CONCATENATE("0",MID(A44,4,2)+1),MID(A44,4,2)+1)),"")</f>
+        <v/>
+      </c>
+      <c r="B45" s="62"/>
       <c r="C45" s="20" t="str">
-        <f t="shared" si="7"/>
-        <v>Cuaderno de Estudio</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>153</v>
-      </c>
+        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>CN_10_04_CO_IMG36_small</v>
+        <f>IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),CONCATENATE($C$7,"_",$A45,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I45="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v/>
       </c>
       <c r="G45" s="13" t="str">
         <f ca="1">IF($F45&lt;&gt;"",IF($G$4="Recurso",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),5),5,FALSE),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v>526 x 370 px</v>
+        <v/>
       </c>
       <c r="H45" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CN_10_04_CO_IMG36_zoom</v>
+        <f ca="1">IF(AND(I45&lt;&gt;"",I45&lt;&gt;0),IF(OR(B45&lt;&gt;"",J45&lt;&gt;""),CONCATENATE($C$7,"_",$A45,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v/>
       </c>
       <c r="I45" s="13" t="str">
         <f ca="1">IF(OR($B45&lt;&gt;"",$J45&lt;&gt;""),IF($G$4="Recurso",IF(VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)=0,"",VLOOKUP($E45,OFFSET('Definición técnica de imagenes'!$A$1,MATCH($G$5,'Definición técnica de imagenes'!$A$1:$A$104,0)-1,1,COUNTIF('Definición técnica de imagenes'!$A$3:$A$102,$G$5),6),6,FALSE)),'Definición técnica de imagenes'!$G$16),"")</f>
-        <v>800 x 600 px</v>
-      </c>
-      <c r="J45" s="63" t="s">
-        <v>260</v>
-      </c>
+        <v/>
+      </c>
+      <c r="J45" s="63"/>
       <c r="K45" s="65"/>
     </row>
     <row r="46" spans="1:15" s="11" customFormat="1">
       <c r="A46" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),CONCATENATE(LEFT(A45,3),IF(MID(A45,4,2)+1&lt;10,CONCATENATE("0",MID(A45,4,2)+1),MID(A45,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B46" s="62"/>
       <c r="C46" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),CONCATENATE($C$7,"_",$A46,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I46="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G46" s="13" t="str">
@@ -4489,7 +4336,7 @@
         <v/>
       </c>
       <c r="H46" s="13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(AND(I46&lt;&gt;"",I46&lt;&gt;0),IF(OR(B46&lt;&gt;"",J46&lt;&gt;""),CONCATENATE($C$7,"_",$A46,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I46" s="13" t="str">
@@ -4501,12 +4348,12 @@
     </row>
     <row r="47" spans="1:15" s="11" customFormat="1">
       <c r="A47" s="12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A47:A50" si="6">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),CONCATENATE(LEFT(A46,3),IF(MID(A46,4,2)+1&lt;10,CONCATENATE("0",MID(A46,4,2)+1),MID(A46,4,2)+1)),"")</f>
         <v/>
       </c>
       <c r="B47" s="62"/>
       <c r="C47" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="C47:C73" si="7">IF(OR(B47&lt;&gt;"",J47&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v/>
       </c>
       <c r="D47" s="63"/>
@@ -6492,25 +6339,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16" thickBot="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="31"/>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="60">
@@ -6518,11 +6365,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="31"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="32"/>
       <c r="H3" s="22" t="s">
         <v>18</v>
@@ -6573,11 +6420,11 @@
       <c r="C5" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="104" t="str">
+      <c r="D5" s="105" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="32"/>
       <c r="H5" s="22" t="s">
         <v>22</v>
@@ -6622,12 +6469,12 @@
       <c r="C7" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="90" t="str">
+      <c r="D7" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="92"/>
       <c r="H7" s="22" t="s">
         <v>24</v>
       </c>
@@ -6721,14 +6568,14 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="92" t="s">
+      <c r="A13" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="95"/>
       <c r="I13" s="22" t="s">
         <v>33</v>
       </c>
@@ -6761,12 +6608,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="98"/>
       <c r="J15" s="22">
         <v>12</v>
       </c>
@@ -6806,12 +6653,12 @@
       <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="98" t="str">
+      <c r="D17" s="99" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="J17" s="22">
         <v>14</v>
       </c>
@@ -6827,12 +6674,12 @@
       <c r="C18" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="90" t="str">
+      <c r="D18" s="91" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="92"/>
       <c r="J18" s="22">
         <v>15</v>
       </c>
@@ -7236,40 +7083,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="106"/>
+      <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="39" t="s">
         <v>65</v>
       </c>
